--- a/NEW HR/GATPANDAN, MICHAEL.xlsx
+++ b/NEW HR/GATPANDAN, MICHAEL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="108">
   <si>
     <t>PERIOD</t>
   </si>
@@ -747,14 +747,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -764,9 +767,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1657,9 +1657,9 @@
   <dimension ref="A2:K235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A89" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A97" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="E99" sqref="E99"/>
+      <selection pane="bottomLeft" activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,14 +1689,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1707,14 +1707,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1727,14 +1727,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1760,18 +1760,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1818,7 +1818,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.5</v>
+        <v>54.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1828,7 +1828,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4072,20 +4072,30 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="13"/>
+      <c r="A108" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B108" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C108" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D108" s="39"/>
       <c r="E108" s="9"/>
       <c r="F108" s="20"/>
-      <c r="G108" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H108" s="39"/>
+      <c r="G108" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H108" s="39">
+        <v>1</v>
+      </c>
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
-      <c r="K108" s="20"/>
+      <c r="K108" s="49">
+        <v>44998</v>
+      </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
@@ -6121,17 +6131,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -6199,14 +6209,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6217,14 +6227,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6237,14 +6247,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6270,18 +6280,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7611,7 +7621,9 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
-      <c r="B69" s="20"/>
+      <c r="B69" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C69" s="13"/>
       <c r="D69" s="39"/>
       <c r="E69" s="9"/>

--- a/NEW HR/GATPANDAN, MICHAEL.xlsx
+++ b/NEW HR/GATPANDAN, MICHAEL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="110">
   <si>
     <t>PERIOD</t>
   </si>
@@ -360,6 +360,12 @@
   </si>
   <si>
     <t>FL(2-0-0)</t>
+  </si>
+  <si>
+    <t>3/27,28/2023</t>
+  </si>
+  <si>
+    <t>4/3,4/2023</t>
   </si>
 </sst>
 </file>
@@ -747,17 +753,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -767,6 +770,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1659,7 +1665,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A97" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="H109" sqref="H109"/>
+      <selection pane="bottomLeft" activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,14 +1695,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1707,14 +1713,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1727,14 +1733,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1760,18 +1766,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6131,17 +6137,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -6177,9 +6183,9 @@
   <dimension ref="A2:K195"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A49" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A55" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="D5"/>
-      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
+      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6209,14 +6215,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6227,14 +6233,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6247,14 +6253,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6280,18 +6286,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6338,7 +6344,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>86.695999999999998</v>
+        <v>82.695999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -7638,10 +7644,16 @@
       <c r="K69" s="20"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
-      <c r="B70" s="20"/>
+      <c r="A70" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C70" s="13"/>
-      <c r="D70" s="39"/>
+      <c r="D70" s="39">
+        <v>2</v>
+      </c>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
       <c r="G70" s="13" t="str">
@@ -7651,13 +7663,19 @@
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="20"/>
+      <c r="K70" s="20" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
-      <c r="B71" s="20"/>
+      <c r="B71" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C71" s="13"/>
-      <c r="D71" s="39"/>
+      <c r="D71" s="39">
+        <v>2</v>
+      </c>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
       <c r="G71" s="13" t="str">
@@ -7667,7 +7685,9 @@
       <c r="H71" s="39"/>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="20"/>
+      <c r="K71" s="20" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>

--- a/NEW HR/GATPANDAN, MICHAEL.xlsx
+++ b/NEW HR/GATPANDAN, MICHAEL.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA31DCE-E3F0-424C-90E9-F559664391AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="111">
   <si>
     <t>PERIOD</t>
   </si>
@@ -366,12 +367,15 @@
   </si>
   <si>
     <t>4/3,4/2023</t>
+  </si>
+  <si>
+    <t>4/11,12/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -753,14 +757,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -770,9 +777,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1301,25 +1305,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K235" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K235" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1331,25 +1335,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K195" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K195" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1656,34 +1660,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A97" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A101" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
       <selection pane="bottomLeft" activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1695,16 +1699,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1713,16 +1717,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1733,16 +1737,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1750,7 +1754,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1763,24 +1767,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1815,7 +1819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1824,7 +1828,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>54.75</v>
+        <v>52.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1839,7 +1843,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -1861,7 +1865,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1881,7 +1885,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="49"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1907,7 +1911,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>49</v>
@@ -1929,7 +1933,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43160</v>
       </c>
@@ -1949,7 +1953,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -1969,7 +1973,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43221</v>
       </c>
@@ -1995,7 +1999,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>49</v>
@@ -2017,7 +2021,7 @@
         <v>43236</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43252</v>
       </c>
@@ -2043,7 +2047,7 @@
         <v>43255</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43282</v>
       </c>
@@ -2069,7 +2073,7 @@
         <v>43291</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>47</v>
@@ -2091,7 +2095,7 @@
         <v>43304</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>47</v>
@@ -2113,7 +2117,7 @@
         <v>43312</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43313</v>
       </c>
@@ -2139,7 +2143,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>47</v>
@@ -2161,7 +2165,7 @@
         <v>43321</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43344</v>
       </c>
@@ -2187,7 +2191,7 @@
         <v>43371</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43374</v>
       </c>
@@ -2213,7 +2217,7 @@
         <v>43375</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>56</v>
@@ -2235,7 +2239,7 @@
         <v>43389</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>47</v>
@@ -2257,7 +2261,7 @@
         <v>43403</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43405</v>
       </c>
@@ -2283,7 +2287,7 @@
         <v>43410</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>47</v>
@@ -2305,7 +2309,7 @@
         <v>43418</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>49</v>
@@ -2327,7 +2331,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43435</v>
       </c>
@@ -2347,7 +2351,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="48" t="s">
         <v>61</v>
       </c>
@@ -2365,7 +2369,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43466</v>
       </c>
@@ -2391,7 +2395,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43497</v>
       </c>
@@ -2417,7 +2421,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>64</v>
@@ -2439,7 +2443,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>47</v>
@@ -2461,7 +2465,7 @@
         <v>43516</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43525</v>
       </c>
@@ -2487,7 +2491,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43556</v>
       </c>
@@ -2513,7 +2517,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43586</v>
       </c>
@@ -2539,7 +2543,7 @@
         <v>43587</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>66</v>
@@ -2561,7 +2565,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>69</v>
@@ -2583,7 +2587,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43617</v>
       </c>
@@ -2609,7 +2613,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43647</v>
       </c>
@@ -2635,7 +2639,7 @@
         <v>43654</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43313</v>
       </c>
@@ -2661,7 +2665,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>47</v>
@@ -2683,7 +2687,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>69</v>
@@ -2705,7 +2709,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>43709</v>
       </c>
@@ -2731,7 +2735,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>43739</v>
       </c>
@@ -2757,7 +2761,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>47</v>
@@ -2779,7 +2783,7 @@
         <v>43749</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>74</v>
@@ -2801,7 +2805,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>43770</v>
       </c>
@@ -2821,7 +2825,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>43800</v>
       </c>
@@ -2847,7 +2851,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>45</v>
@@ -2869,7 +2873,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="48" t="s">
         <v>78</v>
       </c>
@@ -2887,7 +2891,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>43831</v>
       </c>
@@ -2907,7 +2911,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>43862</v>
       </c>
@@ -2933,7 +2937,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>43891</v>
       </c>
@@ -2959,7 +2963,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>47</v>
@@ -2981,7 +2985,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>43922</v>
       </c>
@@ -3001,7 +3005,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>43952</v>
       </c>
@@ -3027,7 +3031,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>43983</v>
       </c>
@@ -3053,7 +3057,7 @@
         <v>43986</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>47</v>
@@ -3075,7 +3079,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>47</v>
@@ -3097,7 +3101,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44013</v>
       </c>
@@ -3123,7 +3127,7 @@
         <v>44039</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44044</v>
       </c>
@@ -3143,7 +3147,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44075</v>
       </c>
@@ -3169,7 +3173,7 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>47</v>
@@ -3191,7 +3195,7 @@
         <v>44095</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>66</v>
@@ -3213,7 +3217,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44105</v>
       </c>
@@ -3239,7 +3243,7 @@
         <v>44109</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44136</v>
       </c>
@@ -3265,7 +3269,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44166</v>
       </c>
@@ -3289,7 +3293,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>66</v>
@@ -3311,7 +3315,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="48" t="s">
         <v>86</v>
       </c>
@@ -3329,7 +3333,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44197</v>
       </c>
@@ -3353,7 +3357,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44228</v>
       </c>
@@ -3379,7 +3383,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>69</v>
@@ -3401,7 +3405,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44256</v>
       </c>
@@ -3427,7 +3431,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44287</v>
       </c>
@@ -3453,7 +3457,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44317</v>
       </c>
@@ -3479,7 +3483,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44348</v>
       </c>
@@ -3505,7 +3509,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="41"/>
       <c r="B81" s="15" t="s">
         <v>47</v>
@@ -3527,7 +3531,7 @@
         <v>44359</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44378</v>
       </c>
@@ -3547,7 +3551,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>44409</v>
       </c>
@@ -3567,7 +3571,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>44440</v>
       </c>
@@ -3587,7 +3591,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>44470</v>
       </c>
@@ -3613,7 +3617,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>56</v>
@@ -3635,7 +3639,7 @@
         <v>44526</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>45</v>
@@ -3655,7 +3659,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>44501</v>
       </c>
@@ -3675,7 +3679,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>44531</v>
       </c>
@@ -3695,7 +3699,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="48" t="s">
         <v>93</v>
       </c>
@@ -3713,7 +3717,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>44562</v>
       </c>
@@ -3739,7 +3743,7 @@
         <v>44587</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>44593</v>
       </c>
@@ -3759,7 +3763,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>44621</v>
       </c>
@@ -3779,7 +3783,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>44652</v>
       </c>
@@ -3799,7 +3803,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>44682</v>
       </c>
@@ -3819,7 +3823,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>44713</v>
       </c>
@@ -3839,7 +3843,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>44743</v>
       </c>
@@ -3859,7 +3863,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>44774</v>
       </c>
@@ -3879,7 +3883,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>44805</v>
       </c>
@@ -3899,7 +3903,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="49"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>44835</v>
       </c>
@@ -3919,7 +3923,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="49"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>44866</v>
       </c>
@@ -3945,7 +3949,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>44896</v>
       </c>
@@ -3969,7 +3973,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>47</v>
@@ -3991,7 +3995,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>47</v>
@@ -4013,7 +4017,7 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="48" t="s">
         <v>106</v>
       </c>
@@ -4031,7 +4035,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>44927</v>
       </c>
@@ -4051,7 +4055,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="49"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>44958</v>
       </c>
@@ -4077,7 +4081,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>44986</v>
       </c>
@@ -4103,11 +4107,17 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
-      <c r="B109" s="20"/>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C109" s="13"/>
-      <c r="D109" s="39"/>
+      <c r="D109" s="39">
+        <v>2</v>
+      </c>
       <c r="E109" s="9"/>
       <c r="F109" s="20"/>
       <c r="G109" s="13" t="str">
@@ -4117,10 +4127,14 @@
       <c r="H109" s="39"/>
       <c r="I109" s="9"/>
       <c r="J109" s="11"/>
-      <c r="K109" s="20"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="40"/>
+      <c r="K109" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="40">
+        <v>45047</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -4135,8 +4149,10 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="40"/>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="40">
+        <v>45078</v>
+      </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -4151,8 +4167,10 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="40"/>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="40">
+        <v>45108</v>
+      </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -4167,8 +4185,10 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="40"/>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="40">
+        <v>45139</v>
+      </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
@@ -4183,8 +4203,10 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="40"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="40">
+        <v>45170</v>
+      </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -4199,8 +4221,10 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="40"/>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="40">
+        <v>45200</v>
+      </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -4215,8 +4239,10 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="40"/>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="40">
+        <v>45231</v>
+      </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -4231,8 +4257,10 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="40">
+        <v>45261</v>
+      </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -4247,8 +4275,10 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="40"/>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="40">
+        <v>45292</v>
+      </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
@@ -4263,8 +4293,10 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="40">
+        <v>45323</v>
+      </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -4279,8 +4311,10 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="40"/>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="40">
+        <v>45352</v>
+      </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -4295,8 +4329,10 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="40"/>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="40">
+        <v>45383</v>
+      </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -4311,8 +4347,10 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="40"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="40">
+        <v>45413</v>
+      </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -4327,8 +4365,10 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="40"/>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="40">
+        <v>45444</v>
+      </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -4343,8 +4383,10 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="40"/>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="40">
+        <v>45474</v>
+      </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
@@ -4359,8 +4401,10 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="40"/>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="40">
+        <v>45505</v>
+      </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
@@ -4375,8 +4419,10 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="40"/>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="40">
+        <v>45536</v>
+      </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -4391,8 +4437,10 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="40"/>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="40">
+        <v>45566</v>
+      </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -4407,8 +4455,10 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="40"/>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="40">
+        <v>45597</v>
+      </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
       <c r="D128" s="39"/>
@@ -4423,8 +4473,10 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="40"/>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="40">
+        <v>45627</v>
+      </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
       <c r="D129" s="39"/>
@@ -4439,8 +4491,10 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="40"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="40">
+        <v>45658</v>
+      </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
       <c r="D130" s="39"/>
@@ -4455,8 +4509,10 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="40"/>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="40">
+        <v>45689</v>
+      </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
       <c r="D131" s="39"/>
@@ -4471,8 +4527,10 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="40"/>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="40">
+        <v>45717</v>
+      </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
       <c r="D132" s="39"/>
@@ -4487,8 +4545,10 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="40"/>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="40">
+        <v>45748</v>
+      </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
       <c r="D133" s="39"/>
@@ -4503,8 +4563,10 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="40"/>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="40">
+        <v>45778</v>
+      </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
       <c r="D134" s="39"/>
@@ -4519,8 +4581,10 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="40"/>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="40">
+        <v>45809</v>
+      </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
       <c r="D135" s="39"/>
@@ -4535,8 +4599,10 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="40"/>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="40">
+        <v>45839</v>
+      </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
       <c r="D136" s="39"/>
@@ -4551,8 +4617,10 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="40"/>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="40">
+        <v>45870</v>
+      </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
       <c r="D137" s="39"/>
@@ -4567,8 +4635,10 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="40"/>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="40">
+        <v>45901</v>
+      </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
       <c r="D138" s="39"/>
@@ -4583,8 +4653,10 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="40"/>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="40">
+        <v>45931</v>
+      </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
       <c r="D139" s="39"/>
@@ -4599,8 +4671,10 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="40"/>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="40">
+        <v>45962</v>
+      </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
       <c r="D140" s="39"/>
@@ -4615,8 +4689,10 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="40"/>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="40">
+        <v>45992</v>
+      </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
       <c r="D141" s="39"/>
@@ -4631,8 +4707,10 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="40"/>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="40">
+        <v>46023</v>
+      </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
       <c r="D142" s="39"/>
@@ -4647,8 +4725,10 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="40"/>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="40">
+        <v>46054</v>
+      </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
       <c r="D143" s="39"/>
@@ -4663,8 +4743,10 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="40"/>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="40">
+        <v>46082</v>
+      </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
       <c r="D144" s="39"/>
@@ -4679,8 +4761,10 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="40"/>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="40">
+        <v>46113</v>
+      </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
       <c r="D145" s="39"/>
@@ -4695,8 +4779,10 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="40"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="40">
+        <v>46143</v>
+      </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
       <c r="D146" s="39"/>
@@ -4711,8 +4797,10 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="40"/>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="40">
+        <v>46174</v>
+      </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
       <c r="D147" s="39"/>
@@ -4727,8 +4815,10 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="40"/>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="40">
+        <v>46204</v>
+      </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
       <c r="D148" s="39"/>
@@ -4743,8 +4833,10 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="40"/>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="40">
+        <v>46235</v>
+      </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
       <c r="D149" s="39"/>
@@ -4759,8 +4851,10 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="40"/>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="40">
+        <v>46266</v>
+      </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
       <c r="D150" s="39"/>
@@ -4775,8 +4869,10 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="40"/>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="40">
+        <v>46296</v>
+      </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
       <c r="D151" s="39"/>
@@ -4791,8 +4887,10 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="40"/>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="40">
+        <v>46327</v>
+      </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
       <c r="D152" s="39"/>
@@ -4807,8 +4905,10 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="40"/>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="40">
+        <v>46357</v>
+      </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
       <c r="D153" s="39"/>
@@ -4823,8 +4923,10 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="40"/>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="40">
+        <v>46388</v>
+      </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
       <c r="D154" s="39"/>
@@ -4839,8 +4941,10 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="40"/>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="40">
+        <v>46419</v>
+      </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
       <c r="D155" s="39"/>
@@ -4855,8 +4959,10 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="40"/>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="40">
+        <v>46447</v>
+      </c>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
       <c r="D156" s="39"/>
@@ -4871,8 +4977,10 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="40"/>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="40">
+        <v>46478</v>
+      </c>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
       <c r="D157" s="39"/>
@@ -4887,8 +4995,10 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="40"/>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="40">
+        <v>46508</v>
+      </c>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
       <c r="D158" s="39"/>
@@ -4903,8 +5013,10 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="40"/>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" s="40">
+        <v>46539</v>
+      </c>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
       <c r="D159" s="39"/>
@@ -4919,8 +5031,10 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="40"/>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" s="40">
+        <v>46569</v>
+      </c>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
       <c r="D160" s="39"/>
@@ -4935,8 +5049,10 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="40"/>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" s="40">
+        <v>46600</v>
+      </c>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
       <c r="D161" s="39"/>
@@ -4951,8 +5067,10 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="40"/>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" s="40">
+        <v>46631</v>
+      </c>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
       <c r="D162" s="39"/>
@@ -4967,7 +5085,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -4983,7 +5101,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -4999,7 +5117,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -5015,7 +5133,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -5031,7 +5149,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -5047,7 +5165,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -5063,7 +5181,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -5079,7 +5197,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -5095,7 +5213,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -5111,7 +5229,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -5127,7 +5245,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -5143,7 +5261,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -5159,7 +5277,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -5175,7 +5293,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -5191,7 +5309,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -5207,7 +5325,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -5223,7 +5341,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -5239,7 +5357,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -5255,7 +5373,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -5271,7 +5389,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -5287,7 +5405,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -5303,7 +5421,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -5319,7 +5437,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -5335,7 +5453,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -5351,7 +5469,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -5367,7 +5485,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -5383,7 +5501,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -5399,7 +5517,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -5415,7 +5533,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -5431,7 +5549,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -5447,7 +5565,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -5463,7 +5581,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -5479,7 +5597,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -5495,7 +5613,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -5511,7 +5629,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -5527,7 +5645,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -5543,7 +5661,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -5559,7 +5677,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -5575,7 +5693,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -5591,7 +5709,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -5607,7 +5725,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -5623,7 +5741,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -5639,7 +5757,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -5655,7 +5773,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -5671,7 +5789,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -5687,7 +5805,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -5703,7 +5821,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -5719,7 +5837,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -5735,7 +5853,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -5751,7 +5869,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -5767,7 +5885,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -5783,7 +5901,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -5799,7 +5917,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -5815,7 +5933,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -5831,7 +5949,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -5847,7 +5965,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -5863,7 +5981,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -5879,7 +5997,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40"/>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -5895,7 +6013,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -5911,7 +6029,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -5927,7 +6045,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -5943,7 +6061,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -5959,7 +6077,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -5975,7 +6093,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -5991,7 +6109,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -6007,7 +6125,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -6023,7 +6141,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
@@ -6039,7 +6157,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20"/>
       <c r="C230" s="13"/>
@@ -6055,7 +6173,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20"/>
       <c r="C231" s="13"/>
@@ -6071,7 +6189,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20"/>
       <c r="C232" s="13"/>
@@ -6087,7 +6205,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20"/>
       <c r="C233" s="13"/>
@@ -6103,7 +6221,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20"/>
       <c r="C234" s="13"/>
@@ -6119,7 +6237,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="41"/>
       <c r="B235" s="15"/>
       <c r="C235" s="42"/>
@@ -6137,23 +6255,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6176,34 +6294,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K195"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A55" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A55" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6215,16 +6333,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6233,16 +6351,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6253,16 +6371,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6270,7 +6388,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6283,24 +6401,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6335,7 +6453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6359,7 +6477,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -6381,7 +6499,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6403,7 +6521,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>44</v>
@@ -6423,7 +6541,7 @@
         <v>43129</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43132</v>
       </c>
@@ -6445,7 +6563,7 @@
         <v>43214</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43221</v>
       </c>
@@ -6467,7 +6585,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43252</v>
       </c>
@@ -6489,7 +6607,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43282</v>
       </c>
@@ -6511,7 +6629,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43313</v>
       </c>
@@ -6533,7 +6651,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43344</v>
       </c>
@@ -6555,7 +6673,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>57</v>
@@ -6575,7 +6693,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43405</v>
       </c>
@@ -6597,7 +6715,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43435</v>
       </c>
@@ -6617,7 +6735,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
         <v>61</v>
       </c>
@@ -6635,7 +6753,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43466</v>
       </c>
@@ -6657,7 +6775,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43497</v>
       </c>
@@ -6679,7 +6797,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43556</v>
       </c>
@@ -6701,7 +6819,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="48" t="s">
         <v>78</v>
       </c>
@@ -6719,7 +6837,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43831</v>
       </c>
@@ -6741,7 +6859,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>44</v>
@@ -6761,7 +6879,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43862</v>
       </c>
@@ -6783,7 +6901,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>44</v>
@@ -6803,7 +6921,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
         <v>86</v>
       </c>
@@ -6821,7 +6939,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>44197</v>
       </c>
@@ -6843,7 +6961,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>44</v>
@@ -6863,7 +6981,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>44228</v>
       </c>
@@ -6885,7 +7003,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>66</v>
@@ -6905,7 +7023,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>69</v>
@@ -6925,7 +7043,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>44256</v>
       </c>
@@ -6947,7 +7065,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>44287</v>
       </c>
@@ -6969,7 +7087,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>44317</v>
       </c>
@@ -6991,7 +7109,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>44348</v>
       </c>
@@ -7013,7 +7131,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="41"/>
       <c r="B41" s="15" t="s">
         <v>47</v>
@@ -7033,7 +7151,7 @@
         <v>44359</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>44409</v>
       </c>
@@ -7055,7 +7173,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44470</v>
       </c>
@@ -7079,7 +7197,7 @@
         <v>44474</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>66</v>
@@ -7101,7 +7219,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>47</v>
@@ -7121,7 +7239,7 @@
         <v>44494</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="48" t="s">
         <v>93</v>
       </c>
@@ -7139,7 +7257,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44562</v>
       </c>
@@ -7161,7 +7279,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>56</v>
@@ -7183,7 +7301,7 @@
         <v>44587</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44593</v>
       </c>
@@ -7207,7 +7325,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>44</v>
@@ -7227,7 +7345,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>44</v>
@@ -7247,7 +7365,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>47</v>
@@ -7269,7 +7387,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44743</v>
       </c>
@@ -7293,7 +7411,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44774</v>
       </c>
@@ -7317,7 +7435,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44805</v>
       </c>
@@ -7341,7 +7459,7 @@
         <v>44833</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44835</v>
       </c>
@@ -7365,7 +7483,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>47</v>
@@ -7387,7 +7505,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>101</v>
@@ -7411,7 +7529,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44866</v>
       </c>
@@ -7435,7 +7553,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>45</v>
@@ -7457,7 +7575,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>104</v>
@@ -7479,7 +7597,7 @@
         <v>44886</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>104</v>
@@ -7501,7 +7619,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44896</v>
       </c>
@@ -7525,7 +7643,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>104</v>
@@ -7543,7 +7661,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="48" t="s">
         <v>106</v>
       </c>
@@ -7561,7 +7679,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44927</v>
       </c>
@@ -7583,7 +7701,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>44</v>
@@ -7603,7 +7721,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44958</v>
       </c>
@@ -7625,7 +7743,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>47</v>
@@ -7643,7 +7761,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44986</v>
       </c>
@@ -7667,7 +7785,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>45</v>
@@ -7689,7 +7807,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7705,7 +7823,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7721,7 +7839,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7737,7 +7855,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7753,7 +7871,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7769,7 +7887,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7785,7 +7903,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7801,7 +7919,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7817,7 +7935,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7833,7 +7951,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7849,7 +7967,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7865,7 +7983,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7881,7 +7999,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7897,7 +8015,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7913,7 +8031,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7929,7 +8047,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7945,7 +8063,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7961,7 +8079,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7977,7 +8095,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7993,7 +8111,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -8009,7 +8127,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -8025,7 +8143,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -8041,7 +8159,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -8057,7 +8175,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -8073,7 +8191,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -8089,7 +8207,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -8105,7 +8223,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -8121,7 +8239,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -8137,7 +8255,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -8153,7 +8271,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -8169,7 +8287,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -8185,7 +8303,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -8201,7 +8319,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -8217,7 +8335,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -8233,7 +8351,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -8249,7 +8367,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -8265,7 +8383,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -8281,7 +8399,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -8297,7 +8415,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -8313,7 +8431,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -8329,7 +8447,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -8345,7 +8463,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -8361,7 +8479,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -8377,7 +8495,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -8393,7 +8511,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8409,7 +8527,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8425,7 +8543,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8441,7 +8559,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8457,7 +8575,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8473,7 +8591,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8489,7 +8607,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8505,7 +8623,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8521,7 +8639,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8537,7 +8655,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8553,7 +8671,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8569,7 +8687,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8585,7 +8703,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8601,7 +8719,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8617,7 +8735,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8633,7 +8751,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -8649,7 +8767,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -8665,7 +8783,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -8681,7 +8799,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -8697,7 +8815,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -8713,7 +8831,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -8729,7 +8847,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -8745,7 +8863,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -8761,7 +8879,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -8777,7 +8895,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -8793,7 +8911,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -8809,7 +8927,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -8825,7 +8943,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -8841,7 +8959,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -8857,7 +8975,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -8873,7 +8991,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -8889,7 +9007,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -8905,7 +9023,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -8921,7 +9039,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -8937,7 +9055,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -8953,7 +9071,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -8969,7 +9087,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -8985,7 +9103,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -9001,7 +9119,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -9017,7 +9135,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -9033,7 +9151,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -9049,7 +9167,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -9065,7 +9183,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -9081,7 +9199,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -9097,7 +9215,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -9113,7 +9231,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -9129,7 +9247,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -9145,7 +9263,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -9161,7 +9279,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -9177,7 +9295,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -9193,7 +9311,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -9209,7 +9327,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -9225,7 +9343,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -9241,7 +9359,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -9257,7 +9375,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -9273,7 +9391,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -9289,7 +9407,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -9305,7 +9423,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -9321,7 +9439,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -9337,7 +9455,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -9353,7 +9471,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -9369,7 +9487,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -9385,7 +9503,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -9401,7 +9519,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -9417,7 +9535,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -9433,7 +9551,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -9449,7 +9567,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -9465,7 +9583,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -9481,7 +9599,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -9497,7 +9615,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -9513,7 +9631,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -9529,7 +9647,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -9545,7 +9663,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -9561,7 +9679,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -9577,7 +9695,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -9593,7 +9711,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -9609,7 +9727,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -9625,7 +9743,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -9641,7 +9759,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -9657,7 +9775,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="41"/>
       <c r="B195" s="15"/>
       <c r="C195" s="42"/>
@@ -9688,10 +9806,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9714,28 +9832,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -9748,7 +9866,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -9777,7 +9895,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>107.80500000000001</v>
       </c>
@@ -9801,17 +9919,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -9832,7 +9950,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -9859,7 +9977,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -9885,7 +10003,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -9911,7 +10029,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -9937,7 +10055,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -9963,7 +10081,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -9989,7 +10107,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -10015,7 +10133,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -10041,7 +10159,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -10061,7 +10179,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -10081,7 +10199,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -10101,7 +10219,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -10122,7 +10240,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -10143,7 +10261,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -10164,7 +10282,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -10185,7 +10303,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -10206,7 +10324,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -10227,7 +10345,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -10248,7 +10366,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -10269,7 +10387,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -10290,7 +10408,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -10311,7 +10429,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -10332,7 +10450,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -10353,7 +10471,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -10374,7 +10492,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -10395,7 +10513,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -10416,7 +10534,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -10437,7 +10555,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -10458,7 +10576,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -10479,7 +10597,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -10500,7 +10618,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -10521,7 +10639,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -10530,7 +10648,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -10539,7 +10657,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -10548,7 +10666,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -10557,7 +10675,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -10566,7 +10684,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -10575,7 +10693,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -10584,7 +10702,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -10593,7 +10711,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -10602,7 +10720,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -10611,7 +10729,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -10620,7 +10738,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -10629,7 +10747,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -10638,7 +10756,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -10647,7 +10765,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -10656,7 +10774,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -10665,7 +10783,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -10674,7 +10792,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -10683,7 +10801,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -10692,7 +10810,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -10701,7 +10819,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -10710,7 +10828,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -10719,7 +10837,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -10728,7 +10846,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -10737,7 +10855,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -10746,7 +10864,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -10755,7 +10873,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -10764,7 +10882,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -10773,7 +10891,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -10782,7 +10900,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/GATPANDAN, MICHAEL.xlsx
+++ b/NEW HR/GATPANDAN, MICHAEL.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA31DCE-E3F0-424C-90E9-F559664391AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="111">
   <si>
     <t>PERIOD</t>
   </si>
@@ -375,7 +374,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -757,17 +756,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -777,6 +773,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1305,25 +1304,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K235" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K238" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1335,25 +1334,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K195" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K195" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1660,34 +1659,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K235"/>
+  <dimension ref="A2:K238"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A101" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A101" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="D110" sqref="D110"/>
+      <selection pane="bottomLeft" activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1699,16 +1698,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1717,16 +1716,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1737,16 +1736,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1754,7 +1753,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1767,24 +1766,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1819,7 +1818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1828,7 +1827,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>52.75</v>
+        <v>51.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1838,12 +1837,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>2.75</v>
+        <v>0.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -1865,7 +1864,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1885,7 +1884,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="49"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1911,7 +1910,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>49</v>
@@ -1933,7 +1932,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43160</v>
       </c>
@@ -1953,7 +1952,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -1973,7 +1972,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43221</v>
       </c>
@@ -1999,7 +1998,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>49</v>
@@ -2021,7 +2020,7 @@
         <v>43236</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43252</v>
       </c>
@@ -2047,7 +2046,7 @@
         <v>43255</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43282</v>
       </c>
@@ -2073,7 +2072,7 @@
         <v>43291</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>47</v>
@@ -2095,7 +2094,7 @@
         <v>43304</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>47</v>
@@ -2117,7 +2116,7 @@
         <v>43312</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43313</v>
       </c>
@@ -2143,7 +2142,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>47</v>
@@ -2165,7 +2164,7 @@
         <v>43321</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43344</v>
       </c>
@@ -2191,7 +2190,7 @@
         <v>43371</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43374</v>
       </c>
@@ -2217,7 +2216,7 @@
         <v>43375</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>56</v>
@@ -2239,7 +2238,7 @@
         <v>43389</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>47</v>
@@ -2261,7 +2260,7 @@
         <v>43403</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43405</v>
       </c>
@@ -2287,7 +2286,7 @@
         <v>43410</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>47</v>
@@ -2309,7 +2308,7 @@
         <v>43418</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>49</v>
@@ -2331,7 +2330,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43435</v>
       </c>
@@ -2351,7 +2350,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
         <v>61</v>
       </c>
@@ -2369,7 +2368,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43466</v>
       </c>
@@ -2395,7 +2394,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43497</v>
       </c>
@@ -2421,7 +2420,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>64</v>
@@ -2443,7 +2442,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>47</v>
@@ -2465,7 +2464,7 @@
         <v>43516</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43525</v>
       </c>
@@ -2491,7 +2490,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43556</v>
       </c>
@@ -2517,7 +2516,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43586</v>
       </c>
@@ -2543,7 +2542,7 @@
         <v>43587</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>66</v>
@@ -2565,7 +2564,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>69</v>
@@ -2587,7 +2586,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43617</v>
       </c>
@@ -2613,7 +2612,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43647</v>
       </c>
@@ -2639,7 +2638,7 @@
         <v>43654</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43313</v>
       </c>
@@ -2665,7 +2664,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>47</v>
@@ -2687,7 +2686,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>69</v>
@@ -2709,7 +2708,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43709</v>
       </c>
@@ -2735,7 +2734,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>43739</v>
       </c>
@@ -2761,7 +2760,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>47</v>
@@ -2783,7 +2782,7 @@
         <v>43749</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>74</v>
@@ -2805,7 +2804,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>43770</v>
       </c>
@@ -2825,7 +2824,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>43800</v>
       </c>
@@ -2851,7 +2850,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>45</v>
@@ -2873,7 +2872,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
         <v>78</v>
       </c>
@@ -2891,7 +2890,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>43831</v>
       </c>
@@ -2911,7 +2910,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>43862</v>
       </c>
@@ -2937,7 +2936,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>43891</v>
       </c>
@@ -2963,7 +2962,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>47</v>
@@ -2985,7 +2984,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>43922</v>
       </c>
@@ -3005,7 +3004,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>43952</v>
       </c>
@@ -3031,7 +3030,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>43983</v>
       </c>
@@ -3057,7 +3056,7 @@
         <v>43986</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>47</v>
@@ -3079,7 +3078,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>47</v>
@@ -3101,7 +3100,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44013</v>
       </c>
@@ -3127,7 +3126,7 @@
         <v>44039</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44044</v>
       </c>
@@ -3147,7 +3146,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44075</v>
       </c>
@@ -3173,7 +3172,7 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>47</v>
@@ -3195,7 +3194,7 @@
         <v>44095</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>66</v>
@@ -3217,7 +3216,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44105</v>
       </c>
@@ -3243,7 +3242,7 @@
         <v>44109</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44136</v>
       </c>
@@ -3269,7 +3268,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44166</v>
       </c>
@@ -3293,7 +3292,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>66</v>
@@ -3315,7 +3314,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
         <v>86</v>
       </c>
@@ -3333,7 +3332,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44197</v>
       </c>
@@ -3357,7 +3356,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44228</v>
       </c>
@@ -3383,7 +3382,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>69</v>
@@ -3405,7 +3404,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44256</v>
       </c>
@@ -3431,7 +3430,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44287</v>
       </c>
@@ -3457,7 +3456,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44317</v>
       </c>
@@ -3483,7 +3482,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44348</v>
       </c>
@@ -3509,7 +3508,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="41"/>
       <c r="B81" s="15" t="s">
         <v>47</v>
@@ -3531,7 +3530,7 @@
         <v>44359</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44378</v>
       </c>
@@ -3551,7 +3550,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>44409</v>
       </c>
@@ -3571,7 +3570,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44440</v>
       </c>
@@ -3591,7 +3590,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>44470</v>
       </c>
@@ -3617,7 +3616,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>56</v>
@@ -3639,7 +3638,7 @@
         <v>44526</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>45</v>
@@ -3659,7 +3658,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>44501</v>
       </c>
@@ -3679,7 +3678,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>44531</v>
       </c>
@@ -3699,7 +3698,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
         <v>93</v>
       </c>
@@ -3717,7 +3716,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>44562</v>
       </c>
@@ -3743,7 +3742,7 @@
         <v>44587</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>44593</v>
       </c>
@@ -3763,7 +3762,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>44621</v>
       </c>
@@ -3783,7 +3782,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>44652</v>
       </c>
@@ -3803,7 +3802,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>44682</v>
       </c>
@@ -3823,7 +3822,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>44713</v>
       </c>
@@ -3843,7 +3842,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>44743</v>
       </c>
@@ -3863,7 +3862,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>44774</v>
       </c>
@@ -3883,7 +3882,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>44805</v>
       </c>
@@ -3903,7 +3902,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="49"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>44835</v>
       </c>
@@ -3923,7 +3922,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="49"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>44866</v>
       </c>
@@ -3949,7 +3948,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>44896</v>
       </c>
@@ -3973,7 +3972,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>47</v>
@@ -3995,7 +3994,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>47</v>
@@ -4017,7 +4016,7 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="48" t="s">
         <v>106</v>
       </c>
@@ -4035,7 +4034,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>44927</v>
       </c>
@@ -4055,7 +4054,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="49"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>44958</v>
       </c>
@@ -4081,7 +4080,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>44986</v>
       </c>
@@ -4107,7 +4106,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>45017</v>
       </c>
@@ -4131,11 +4130,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B110" s="20"/>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="40"/>
+      <c r="B110" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
       <c r="E110" s="9"/>
@@ -4144,16 +4143,20 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H110" s="39"/>
+      <c r="H110" s="39">
+        <v>1</v>
+      </c>
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
-      <c r="K110" s="20"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B111" s="20"/>
+      <c r="K110" s="49">
+        <v>45029</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="40"/>
+      <c r="B111" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
       <c r="E111" s="9"/>
@@ -4162,18 +4165,24 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H111" s="39"/>
+      <c r="H111" s="39">
+        <v>1</v>
+      </c>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
-      <c r="K111" s="20"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B112" s="20"/>
+      <c r="K111" s="49">
+        <v>45034</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="40"/>
+      <c r="B112" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C112" s="13"/>
-      <c r="D112" s="39"/>
+      <c r="D112" s="39">
+        <v>1</v>
+      </c>
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
       <c r="G112" s="13" t="str">
@@ -4183,11 +4192,13 @@
       <c r="H112" s="39"/>
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
-      <c r="K112" s="20"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K112" s="49">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>45139</v>
+        <v>45047</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -4203,9 +4214,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45170</v>
+        <v>45078</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4221,9 +4232,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45200</v>
+        <v>45108</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4239,9 +4250,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45231</v>
+        <v>45139</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4257,9 +4268,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45261</v>
+        <v>45170</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -4275,9 +4286,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>45292</v>
+        <v>45200</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -4293,9 +4304,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>45323</v>
+        <v>45231</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -4311,9 +4322,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45352</v>
+        <v>45261</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -4329,9 +4340,9 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>45383</v>
+        <v>45292</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -4347,9 +4358,9 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>45413</v>
+        <v>45323</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -4365,9 +4376,9 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>45444</v>
+        <v>45352</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4383,9 +4394,9 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>45474</v>
+        <v>45383</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4401,9 +4412,9 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>45505</v>
+        <v>45413</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -4419,9 +4430,9 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>45536</v>
+        <v>45444</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4437,9 +4448,9 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>45566</v>
+        <v>45474</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4455,9 +4466,9 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>45597</v>
+        <v>45505</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -4473,9 +4484,9 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>45627</v>
+        <v>45536</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -4491,9 +4502,9 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>45658</v>
+        <v>45566</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -4509,9 +4520,9 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>45689</v>
+        <v>45597</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -4527,9 +4538,9 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>45717</v>
+        <v>45627</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -4545,9 +4556,9 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>45748</v>
+        <v>45658</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -4563,9 +4574,9 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>45778</v>
+        <v>45689</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -4581,9 +4592,9 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>45809</v>
+        <v>45717</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -4599,9 +4610,9 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>45839</v>
+        <v>45748</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4617,9 +4628,9 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>45870</v>
+        <v>45778</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4635,9 +4646,9 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>45901</v>
+        <v>45809</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4653,9 +4664,9 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <v>45931</v>
+        <v>45839</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4671,9 +4682,9 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <v>45962</v>
+        <v>45870</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -4689,9 +4700,9 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
-        <v>45992</v>
+        <v>45901</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -4707,9 +4718,9 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
-        <v>46023</v>
+        <v>45931</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -4725,9 +4736,9 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
-        <v>46054</v>
+        <v>45962</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -4743,9 +4754,9 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
-        <v>46082</v>
+        <v>45992</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -4761,9 +4772,9 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
-        <v>46113</v>
+        <v>46023</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -4779,9 +4790,9 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
-        <v>46143</v>
+        <v>46054</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -4797,9 +4808,9 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
-        <v>46174</v>
+        <v>46082</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -4815,9 +4826,9 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
-        <v>46204</v>
+        <v>46113</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -4833,9 +4844,9 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
-        <v>46235</v>
+        <v>46143</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -4851,9 +4862,9 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
-        <v>46266</v>
+        <v>46174</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -4869,9 +4880,9 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
-        <v>46296</v>
+        <v>46204</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -4887,9 +4898,9 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
-        <v>46327</v>
+        <v>46235</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -4905,9 +4916,9 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
-        <v>46357</v>
+        <v>46266</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -4923,9 +4934,9 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
-        <v>46388</v>
+        <v>46296</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -4941,9 +4952,9 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
-        <v>46419</v>
+        <v>46327</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -4959,9 +4970,9 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
-        <v>46447</v>
+        <v>46357</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -4977,9 +4988,9 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
-        <v>46478</v>
+        <v>46388</v>
       </c>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -4995,9 +5006,9 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
-        <v>46508</v>
+        <v>46419</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -5013,9 +5024,9 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
-        <v>46539</v>
+        <v>46447</v>
       </c>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -5031,9 +5042,9 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
-        <v>46569</v>
+        <v>46478</v>
       </c>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -5049,9 +5060,9 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
-        <v>46600</v>
+        <v>46508</v>
       </c>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -5067,9 +5078,9 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
-        <v>46631</v>
+        <v>46539</v>
       </c>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -5085,8 +5096,10 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A163" s="40"/>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" s="40">
+        <v>46569</v>
+      </c>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
       <c r="D163" s="39"/>
@@ -5101,8 +5114,10 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A164" s="40"/>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" s="40">
+        <v>46600</v>
+      </c>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
       <c r="D164" s="39"/>
@@ -5117,8 +5132,10 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A165" s="40"/>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="40">
+        <v>46631</v>
+      </c>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
       <c r="D165" s="39"/>
@@ -5133,7 +5150,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -5149,7 +5166,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -5165,7 +5182,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -5181,7 +5198,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -5197,7 +5214,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -5213,7 +5230,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -5229,7 +5246,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -5245,7 +5262,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -5261,7 +5278,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -5277,7 +5294,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -5293,7 +5310,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -5309,7 +5326,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -5325,7 +5342,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -5341,7 +5358,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -5357,7 +5374,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -5373,7 +5390,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -5389,7 +5406,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -5405,7 +5422,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -5421,7 +5438,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -5437,7 +5454,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -5453,7 +5470,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -5469,7 +5486,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -5485,7 +5502,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -5501,7 +5518,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -5517,7 +5534,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -5533,7 +5550,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -5549,7 +5566,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -5565,7 +5582,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -5581,7 +5598,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -5597,7 +5614,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -5613,7 +5630,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -5629,7 +5646,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -5645,7 +5662,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -5661,7 +5678,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -5677,7 +5694,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -5693,7 +5710,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -5709,7 +5726,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -5725,7 +5742,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -5741,7 +5758,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -5757,7 +5774,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -5773,7 +5790,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -5789,7 +5806,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -5805,7 +5822,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -5821,7 +5838,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -5837,7 +5854,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -5853,7 +5870,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -5869,7 +5886,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -5885,7 +5902,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -5901,7 +5918,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -5917,7 +5934,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -5933,7 +5950,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -5949,7 +5966,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -5965,7 +5982,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -5981,7 +5998,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -5997,7 +6014,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -6013,7 +6030,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -6029,7 +6046,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -6045,7 +6062,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -6061,7 +6078,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -6077,7 +6094,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -6093,7 +6110,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -6109,7 +6126,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -6125,7 +6142,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -6141,7 +6158,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
@@ -6157,7 +6174,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20"/>
       <c r="C230" s="13"/>
@@ -6173,7 +6190,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20"/>
       <c r="C231" s="13"/>
@@ -6189,7 +6206,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20"/>
       <c r="C232" s="13"/>
@@ -6205,7 +6222,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20"/>
       <c r="C233" s="13"/>
@@ -6221,7 +6238,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20"/>
       <c r="C234" s="13"/>
@@ -6237,41 +6254,89 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A235" s="41"/>
-      <c r="B235" s="15"/>
-      <c r="C235" s="42"/>
-      <c r="D235" s="43"/>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A235" s="40"/>
+      <c r="B235" s="20"/>
+      <c r="C235" s="13"/>
+      <c r="D235" s="39"/>
       <c r="E235" s="9"/>
-      <c r="F235" s="15"/>
-      <c r="G235" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H235" s="43"/>
+      <c r="F235" s="20"/>
+      <c r="G235" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H235" s="39"/>
       <c r="I235" s="9"/>
-      <c r="J235" s="12"/>
-      <c r="K235" s="15"/>
+      <c r="J235" s="11"/>
+      <c r="K235" s="20"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A236" s="40"/>
+      <c r="B236" s="20"/>
+      <c r="C236" s="13"/>
+      <c r="D236" s="39"/>
+      <c r="E236" s="9"/>
+      <c r="F236" s="20"/>
+      <c r="G236" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H236" s="39"/>
+      <c r="I236" s="9"/>
+      <c r="J236" s="11"/>
+      <c r="K236" s="20"/>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A237" s="40"/>
+      <c r="B237" s="20"/>
+      <c r="C237" s="13"/>
+      <c r="D237" s="39"/>
+      <c r="E237" s="9"/>
+      <c r="F237" s="20"/>
+      <c r="G237" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H237" s="39"/>
+      <c r="I237" s="9"/>
+      <c r="J237" s="11"/>
+      <c r="K237" s="20"/>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A238" s="41"/>
+      <c r="B238" s="15"/>
+      <c r="C238" s="42"/>
+      <c r="D238" s="43"/>
+      <c r="E238" s="9"/>
+      <c r="F238" s="15"/>
+      <c r="G238" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H238" s="43"/>
+      <c r="I238" s="9"/>
+      <c r="J238" s="12"/>
+      <c r="K238" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6294,34 +6359,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K195"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A55" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A55" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="D5"/>
-      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6333,16 +6398,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6351,16 +6416,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6371,16 +6436,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6388,7 +6453,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6401,24 +6466,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6453,7 +6518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6477,7 +6542,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -6499,7 +6564,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6521,7 +6586,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>44</v>
@@ -6541,7 +6606,7 @@
         <v>43129</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43132</v>
       </c>
@@ -6563,7 +6628,7 @@
         <v>43214</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43221</v>
       </c>
@@ -6585,7 +6650,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43252</v>
       </c>
@@ -6607,7 +6672,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43282</v>
       </c>
@@ -6629,7 +6694,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43313</v>
       </c>
@@ -6651,7 +6716,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43344</v>
       </c>
@@ -6673,7 +6738,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>57</v>
@@ -6693,7 +6758,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43405</v>
       </c>
@@ -6715,7 +6780,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43435</v>
       </c>
@@ -6735,7 +6800,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>61</v>
       </c>
@@ -6753,7 +6818,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43466</v>
       </c>
@@ -6775,7 +6840,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43497</v>
       </c>
@@ -6797,7 +6862,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43556</v>
       </c>
@@ -6819,7 +6884,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>78</v>
       </c>
@@ -6837,7 +6902,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43831</v>
       </c>
@@ -6859,7 +6924,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>44</v>
@@ -6879,7 +6944,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43862</v>
       </c>
@@ -6901,7 +6966,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>44</v>
@@ -6921,7 +6986,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
         <v>86</v>
       </c>
@@ -6939,7 +7004,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>44197</v>
       </c>
@@ -6961,7 +7026,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>44</v>
@@ -6981,7 +7046,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>44228</v>
       </c>
@@ -7003,7 +7068,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>66</v>
@@ -7023,7 +7088,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>69</v>
@@ -7043,7 +7108,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>44256</v>
       </c>
@@ -7065,7 +7130,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>44287</v>
       </c>
@@ -7087,7 +7152,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>44317</v>
       </c>
@@ -7109,7 +7174,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>44348</v>
       </c>
@@ -7131,7 +7196,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
       <c r="B41" s="15" t="s">
         <v>47</v>
@@ -7151,7 +7216,7 @@
         <v>44359</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>44409</v>
       </c>
@@ -7173,7 +7238,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44470</v>
       </c>
@@ -7197,7 +7262,7 @@
         <v>44474</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>66</v>
@@ -7219,7 +7284,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>47</v>
@@ -7239,7 +7304,7 @@
         <v>44494</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
         <v>93</v>
       </c>
@@ -7257,7 +7322,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44562</v>
       </c>
@@ -7279,7 +7344,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>56</v>
@@ -7301,7 +7366,7 @@
         <v>44587</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44593</v>
       </c>
@@ -7325,7 +7390,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>44</v>
@@ -7345,7 +7410,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>44</v>
@@ -7365,7 +7430,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>47</v>
@@ -7387,7 +7452,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44743</v>
       </c>
@@ -7411,7 +7476,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44774</v>
       </c>
@@ -7435,7 +7500,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44805</v>
       </c>
@@ -7459,7 +7524,7 @@
         <v>44833</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44835</v>
       </c>
@@ -7483,7 +7548,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>47</v>
@@ -7505,7 +7570,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>101</v>
@@ -7529,7 +7594,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44866</v>
       </c>
@@ -7553,7 +7618,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>45</v>
@@ -7575,7 +7640,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>104</v>
@@ -7597,7 +7662,7 @@
         <v>44886</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>104</v>
@@ -7619,7 +7684,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44896</v>
       </c>
@@ -7643,7 +7708,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>104</v>
@@ -7661,7 +7726,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
         <v>106</v>
       </c>
@@ -7679,7 +7744,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44927</v>
       </c>
@@ -7701,7 +7766,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>44</v>
@@ -7721,7 +7786,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44958</v>
       </c>
@@ -7743,7 +7808,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>47</v>
@@ -7761,7 +7826,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44986</v>
       </c>
@@ -7785,7 +7850,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>45</v>
@@ -7807,7 +7872,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7823,7 +7888,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7839,7 +7904,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7855,7 +7920,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7871,7 +7936,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7887,7 +7952,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7903,7 +7968,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7919,7 +7984,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7935,7 +8000,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7951,7 +8016,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7967,7 +8032,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7983,7 +8048,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7999,7 +8064,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -8015,7 +8080,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -8031,7 +8096,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -8047,7 +8112,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -8063,7 +8128,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -8079,7 +8144,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -8095,7 +8160,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -8111,7 +8176,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -8127,7 +8192,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -8143,7 +8208,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -8159,7 +8224,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -8175,7 +8240,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -8191,7 +8256,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -8207,7 +8272,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -8223,7 +8288,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -8239,7 +8304,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -8255,7 +8320,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -8271,7 +8336,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -8287,7 +8352,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -8303,7 +8368,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -8319,7 +8384,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -8335,7 +8400,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -8351,7 +8416,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -8367,7 +8432,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -8383,7 +8448,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -8399,7 +8464,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -8415,7 +8480,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -8431,7 +8496,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -8447,7 +8512,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -8463,7 +8528,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -8479,7 +8544,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -8495,7 +8560,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -8511,7 +8576,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8527,7 +8592,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8543,7 +8608,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8559,7 +8624,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8575,7 +8640,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8591,7 +8656,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8607,7 +8672,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8623,7 +8688,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8639,7 +8704,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8655,7 +8720,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8671,7 +8736,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8687,7 +8752,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8703,7 +8768,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8719,7 +8784,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8735,7 +8800,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8751,7 +8816,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -8767,7 +8832,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -8783,7 +8848,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -8799,7 +8864,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -8815,7 +8880,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -8831,7 +8896,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -8847,7 +8912,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -8863,7 +8928,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -8879,7 +8944,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -8895,7 +8960,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -8911,7 +8976,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -8927,7 +8992,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -8943,7 +9008,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -8959,7 +9024,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -8975,7 +9040,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -8991,7 +9056,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -9007,7 +9072,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -9023,7 +9088,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -9039,7 +9104,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -9055,7 +9120,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -9071,7 +9136,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -9087,7 +9152,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -9103,7 +9168,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -9119,7 +9184,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -9135,7 +9200,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -9151,7 +9216,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -9167,7 +9232,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -9183,7 +9248,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -9199,7 +9264,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -9215,7 +9280,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -9231,7 +9296,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -9247,7 +9312,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -9263,7 +9328,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -9279,7 +9344,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -9295,7 +9360,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -9311,7 +9376,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -9327,7 +9392,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -9343,7 +9408,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -9359,7 +9424,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -9375,7 +9440,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -9391,7 +9456,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -9407,7 +9472,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -9423,7 +9488,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -9439,7 +9504,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -9455,7 +9520,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -9471,7 +9536,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -9487,7 +9552,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -9503,7 +9568,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -9519,7 +9584,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -9535,7 +9600,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -9551,7 +9616,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -9567,7 +9632,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -9583,7 +9648,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -9599,7 +9664,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -9615,7 +9680,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -9631,7 +9696,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -9647,7 +9712,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -9663,7 +9728,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -9679,7 +9744,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -9695,7 +9760,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -9711,7 +9776,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -9727,7 +9792,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -9743,7 +9808,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -9759,7 +9824,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -9775,7 +9840,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="41"/>
       <c r="B195" s="15"/>
       <c r="C195" s="42"/>
@@ -9806,10 +9871,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9832,28 +9897,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -9866,7 +9931,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -9895,7 +9960,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>107.80500000000001</v>
       </c>
@@ -9919,17 +9984,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -9950,7 +10015,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -9977,7 +10042,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -10003,7 +10068,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -10029,7 +10094,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -10055,7 +10120,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -10081,7 +10146,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -10107,7 +10172,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -10133,7 +10198,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -10159,7 +10224,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -10179,7 +10244,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -10199,7 +10264,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -10219,7 +10284,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -10240,7 +10305,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -10261,7 +10326,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -10282,7 +10347,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -10303,7 +10368,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -10324,7 +10389,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -10345,7 +10410,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -10366,7 +10431,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -10387,7 +10452,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -10408,7 +10473,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -10429,7 +10494,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -10450,7 +10515,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -10471,7 +10536,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -10492,7 +10557,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -10513,7 +10578,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -10534,7 +10599,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -10555,7 +10620,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -10576,7 +10641,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -10597,7 +10662,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -10618,7 +10683,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -10639,7 +10704,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -10648,7 +10713,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -10657,7 +10722,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -10666,7 +10731,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -10675,7 +10740,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -10684,7 +10749,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -10693,7 +10758,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -10702,7 +10767,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -10711,7 +10776,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -10720,7 +10785,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -10729,7 +10794,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -10738,7 +10803,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -10747,7 +10812,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -10756,7 +10821,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -10765,7 +10830,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -10774,7 +10839,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -10783,7 +10848,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -10792,7 +10857,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -10801,7 +10866,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -10810,7 +10875,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -10819,7 +10884,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -10828,7 +10893,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -10837,7 +10902,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -10846,7 +10911,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -10855,7 +10920,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -10864,7 +10929,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -10873,7 +10938,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -10882,7 +10947,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -10891,7 +10956,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -10900,7 +10965,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/GATPANDAN, MICHAEL.xlsx
+++ b/NEW HR/GATPANDAN, MICHAEL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="113">
   <si>
     <t>PERIOD</t>
   </si>
@@ -369,6 +369,12 @@
   </si>
   <si>
     <t>4/11,12/2023</t>
+  </si>
+  <si>
+    <t>5/11,12/2023</t>
+  </si>
+  <si>
+    <t>GSO</t>
   </si>
 </sst>
 </file>
@@ -756,14 +762,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -773,9 +782,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1304,7 +1310,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K238" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K237" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1663,12 +1669,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K238"/>
+  <dimension ref="A2:K237"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A101" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B113" sqref="B113"/>
+      <selection pane="bottomLeft" activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1698,14 +1704,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1716,14 +1722,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1736,14 +1742,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1769,18 +1775,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1827,7 +1833,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>51.75</v>
+        <v>55</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1837,7 +1843,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4111,23 +4117,25 @@
         <v>45017</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C109" s="13"/>
-      <c r="D109" s="39">
-        <v>2</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C109" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D109" s="39"/>
       <c r="E109" s="9"/>
       <c r="F109" s="20"/>
-      <c r="G109" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H109" s="39"/>
+      <c r="G109" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H109" s="39">
+        <v>1</v>
+      </c>
       <c r="I109" s="9"/>
       <c r="J109" s="11"/>
-      <c r="K109" s="20" t="s">
-        <v>110</v>
+      <c r="K109" s="49">
+        <v>45029</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -4149,40 +4157,38 @@
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
       <c r="K110" s="49">
-        <v>45029</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C111" s="13"/>
-      <c r="D111" s="39"/>
+      <c r="D111" s="39">
+        <v>1</v>
+      </c>
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
       <c r="G111" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H111" s="39">
-        <v>1</v>
-      </c>
+      <c r="H111" s="39"/>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
       <c r="K111" s="49">
-        <v>45034</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="40"/>
-      <c r="B112" s="20" t="s">
-        <v>56</v>
-      </c>
+      <c r="A112" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B112" s="20"/>
       <c r="C112" s="13"/>
-      <c r="D112" s="39">
-        <v>1</v>
-      </c>
+      <c r="D112" s="39"/>
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
       <c r="G112" s="13" t="str">
@@ -4192,13 +4198,11 @@
       <c r="H112" s="39"/>
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
-      <c r="K112" s="49">
-        <v>45041</v>
-      </c>
+      <c r="K112" s="20"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -4216,7 +4220,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4234,7 +4238,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4252,7 +4256,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4270,7 +4274,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -4288,7 +4292,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -4306,7 +4310,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -4324,7 +4328,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -4342,7 +4346,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -4360,7 +4364,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -4378,7 +4382,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4396,7 +4400,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4414,7 +4418,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -4432,7 +4436,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4450,7 +4454,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4468,7 +4472,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -4486,7 +4490,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -4504,7 +4508,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -4522,7 +4526,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -4540,7 +4544,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -4558,7 +4562,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -4576,7 +4580,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>45689</v>
+        <v>45717</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -4594,7 +4598,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>45717</v>
+        <v>45748</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -4612,7 +4616,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>45748</v>
+        <v>45778</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4630,7 +4634,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4648,7 +4652,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4666,7 +4670,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4684,7 +4688,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -4702,7 +4706,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
-        <v>45901</v>
+        <v>45931</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -4720,7 +4724,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
-        <v>45931</v>
+        <v>45962</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -4738,7 +4742,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
-        <v>45962</v>
+        <v>45992</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -4756,7 +4760,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
-        <v>45992</v>
+        <v>46023</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -4774,7 +4778,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
-        <v>46023</v>
+        <v>46054</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -4792,7 +4796,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
-        <v>46054</v>
+        <v>46082</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -4810,7 +4814,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
-        <v>46082</v>
+        <v>46113</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -4828,7 +4832,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
-        <v>46113</v>
+        <v>46143</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -4846,7 +4850,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
-        <v>46143</v>
+        <v>46174</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -4864,7 +4868,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
-        <v>46174</v>
+        <v>46204</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -4882,7 +4886,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
-        <v>46204</v>
+        <v>46235</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -4900,7 +4904,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
-        <v>46235</v>
+        <v>46266</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -4918,7 +4922,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
-        <v>46266</v>
+        <v>46296</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -4936,7 +4940,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
-        <v>46296</v>
+        <v>46327</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -4954,7 +4958,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
-        <v>46327</v>
+        <v>46357</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -4972,7 +4976,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
-        <v>46357</v>
+        <v>46388</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -4990,7 +4994,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
-        <v>46388</v>
+        <v>46419</v>
       </c>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -5008,7 +5012,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
-        <v>46419</v>
+        <v>46447</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -5026,7 +5030,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
-        <v>46447</v>
+        <v>46478</v>
       </c>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -5044,7 +5048,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
-        <v>46478</v>
+        <v>46508</v>
       </c>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -5062,7 +5066,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
-        <v>46508</v>
+        <v>46539</v>
       </c>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -5080,7 +5084,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
-        <v>46539</v>
+        <v>46569</v>
       </c>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -5098,7 +5102,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
-        <v>46569</v>
+        <v>46600</v>
       </c>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -5116,7 +5120,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
-        <v>46600</v>
+        <v>46631</v>
       </c>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -5133,9 +5137,7 @@
       <c r="K164" s="20"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="40">
-        <v>46631</v>
-      </c>
+      <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
       <c r="D165" s="39"/>
@@ -6287,50 +6289,34 @@
       <c r="K236" s="20"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="40"/>
-      <c r="B237" s="20"/>
-      <c r="C237" s="13"/>
-      <c r="D237" s="39"/>
+      <c r="A237" s="41"/>
+      <c r="B237" s="15"/>
+      <c r="C237" s="42"/>
+      <c r="D237" s="43"/>
       <c r="E237" s="9"/>
-      <c r="F237" s="20"/>
-      <c r="G237" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H237" s="39"/>
+      <c r="F237" s="15"/>
+      <c r="G237" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H237" s="43"/>
       <c r="I237" s="9"/>
-      <c r="J237" s="11"/>
-      <c r="K237" s="20"/>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" s="41"/>
-      <c r="B238" s="15"/>
-      <c r="C238" s="42"/>
-      <c r="D238" s="43"/>
-      <c r="E238" s="9"/>
-      <c r="F238" s="15"/>
-      <c r="G238" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H238" s="43"/>
-      <c r="I238" s="9"/>
-      <c r="J238" s="12"/>
-      <c r="K238" s="15"/>
+      <c r="J237" s="12"/>
+      <c r="K237" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -6365,10 +6351,10 @@
   </sheetPr>
   <dimension ref="A2:K195"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A55" activePane="bottomLeft"/>
-      <selection activeCell="D5" sqref="D5"/>
-      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A58"/>
+      <selection activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6398,14 +6384,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6416,14 +6402,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6436,14 +6422,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6469,18 +6457,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6527,7 +6515,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>82.695999999999998</v>
+        <v>77.695999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -7873,10 +7861,16 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
-      <c r="B72" s="20"/>
+      <c r="A72" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C72" s="13"/>
-      <c r="D72" s="39"/>
+      <c r="D72" s="39">
+        <v>2</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
       <c r="G72" s="13" t="str">
@@ -7886,13 +7880,19 @@
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="20"/>
+      <c r="K72" s="20" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
-      <c r="B73" s="20"/>
+      <c r="B73" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C73" s="13"/>
-      <c r="D73" s="39"/>
+      <c r="D73" s="39">
+        <v>1</v>
+      </c>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
       <c r="G73" s="13" t="str">
@@ -7902,13 +7902,21 @@
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="20"/>
+      <c r="K73" s="49">
+        <v>45041</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
-      <c r="B74" s="20"/>
+      <c r="A74" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C74" s="13"/>
-      <c r="D74" s="39"/>
+      <c r="D74" s="39">
+        <v>2</v>
+      </c>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
       <c r="G74" s="13" t="str">
@@ -7918,7 +7926,9 @@
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="20"/>
+      <c r="K74" s="20" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>

--- a/NEW HR/GATPANDAN, MICHAEL.xlsx
+++ b/NEW HR/GATPANDAN, MICHAEL.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C97181-4689-4399-88A0-EAFC37098040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="113">
   <si>
     <t>PERIOD</t>
   </si>
@@ -380,7 +381,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -762,17 +763,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -782,6 +780,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1310,25 +1311,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K237" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K236" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1340,25 +1341,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K195" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K195" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1665,34 +1666,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K237"/>
+  <dimension ref="A2:K236"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A101" activePane="bottomLeft"/>
-      <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3576" topLeftCell="A100" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1704,16 +1705,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1722,16 +1723,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1742,16 +1743,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1759,7 +1760,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1772,24 +1773,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1824,7 +1825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1833,7 +1834,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1848,7 +1849,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -1870,7 +1871,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1890,7 +1891,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="49"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1916,7 +1917,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>49</v>
@@ -1938,7 +1939,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43160</v>
       </c>
@@ -1958,7 +1959,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -1978,7 +1979,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43221</v>
       </c>
@@ -2004,7 +2005,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>49</v>
@@ -2026,7 +2027,7 @@
         <v>43236</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43252</v>
       </c>
@@ -2052,7 +2053,7 @@
         <v>43255</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43282</v>
       </c>
@@ -2078,7 +2079,7 @@
         <v>43291</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>47</v>
@@ -2100,7 +2101,7 @@
         <v>43304</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>47</v>
@@ -2122,7 +2123,7 @@
         <v>43312</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43313</v>
       </c>
@@ -2148,7 +2149,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>47</v>
@@ -2170,7 +2171,7 @@
         <v>43321</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43344</v>
       </c>
@@ -2196,7 +2197,7 @@
         <v>43371</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43374</v>
       </c>
@@ -2222,7 +2223,7 @@
         <v>43375</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>56</v>
@@ -2244,7 +2245,7 @@
         <v>43389</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>47</v>
@@ -2266,7 +2267,7 @@
         <v>43403</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43405</v>
       </c>
@@ -2292,7 +2293,7 @@
         <v>43410</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>47</v>
@@ -2314,7 +2315,7 @@
         <v>43418</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>49</v>
@@ -2336,7 +2337,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43435</v>
       </c>
@@ -2356,7 +2357,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="48" t="s">
         <v>61</v>
       </c>
@@ -2374,7 +2375,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43466</v>
       </c>
@@ -2400,7 +2401,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43497</v>
       </c>
@@ -2426,7 +2427,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>64</v>
@@ -2448,7 +2449,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>47</v>
@@ -2470,7 +2471,7 @@
         <v>43516</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43525</v>
       </c>
@@ -2496,7 +2497,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43556</v>
       </c>
@@ -2522,7 +2523,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43586</v>
       </c>
@@ -2548,7 +2549,7 @@
         <v>43587</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>66</v>
@@ -2570,7 +2571,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>69</v>
@@ -2592,7 +2593,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43617</v>
       </c>
@@ -2618,7 +2619,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43647</v>
       </c>
@@ -2644,7 +2645,7 @@
         <v>43654</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43313</v>
       </c>
@@ -2670,7 +2671,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>47</v>
@@ -2692,7 +2693,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>69</v>
@@ -2714,7 +2715,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>43709</v>
       </c>
@@ -2740,7 +2741,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>43739</v>
       </c>
@@ -2766,7 +2767,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>47</v>
@@ -2788,7 +2789,7 @@
         <v>43749</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>74</v>
@@ -2810,7 +2811,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>43770</v>
       </c>
@@ -2830,7 +2831,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>43800</v>
       </c>
@@ -2856,7 +2857,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>45</v>
@@ -2878,7 +2879,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="48" t="s">
         <v>78</v>
       </c>
@@ -2896,7 +2897,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>43831</v>
       </c>
@@ -2916,7 +2917,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>43862</v>
       </c>
@@ -2942,7 +2943,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>43891</v>
       </c>
@@ -2968,7 +2969,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>47</v>
@@ -2990,7 +2991,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>43922</v>
       </c>
@@ -3010,7 +3011,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>43952</v>
       </c>
@@ -3036,7 +3037,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>43983</v>
       </c>
@@ -3062,7 +3063,7 @@
         <v>43986</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>47</v>
@@ -3084,7 +3085,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>47</v>
@@ -3106,7 +3107,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44013</v>
       </c>
@@ -3132,7 +3133,7 @@
         <v>44039</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44044</v>
       </c>
@@ -3152,7 +3153,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44075</v>
       </c>
@@ -3178,7 +3179,7 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>47</v>
@@ -3200,7 +3201,7 @@
         <v>44095</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>66</v>
@@ -3222,7 +3223,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44105</v>
       </c>
@@ -3248,7 +3249,7 @@
         <v>44109</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44136</v>
       </c>
@@ -3274,7 +3275,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44166</v>
       </c>
@@ -3298,7 +3299,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>66</v>
@@ -3320,7 +3321,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="48" t="s">
         <v>86</v>
       </c>
@@ -3338,7 +3339,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44197</v>
       </c>
@@ -3362,7 +3363,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44228</v>
       </c>
@@ -3388,7 +3389,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>69</v>
@@ -3410,7 +3411,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44256</v>
       </c>
@@ -3436,7 +3437,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44287</v>
       </c>
@@ -3462,7 +3463,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44317</v>
       </c>
@@ -3488,7 +3489,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44348</v>
       </c>
@@ -3514,7 +3515,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="41"/>
       <c r="B81" s="15" t="s">
         <v>47</v>
@@ -3536,7 +3537,7 @@
         <v>44359</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44378</v>
       </c>
@@ -3556,7 +3557,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>44409</v>
       </c>
@@ -3576,7 +3577,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>44440</v>
       </c>
@@ -3596,7 +3597,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>44470</v>
       </c>
@@ -3622,7 +3623,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>56</v>
@@ -3644,7 +3645,7 @@
         <v>44526</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>45</v>
@@ -3664,7 +3665,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>44501</v>
       </c>
@@ -3684,7 +3685,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>44531</v>
       </c>
@@ -3704,7 +3705,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="48" t="s">
         <v>93</v>
       </c>
@@ -3722,7 +3723,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>44562</v>
       </c>
@@ -3748,7 +3749,7 @@
         <v>44587</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>44593</v>
       </c>
@@ -3768,7 +3769,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>44621</v>
       </c>
@@ -3788,7 +3789,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>44652</v>
       </c>
@@ -3808,7 +3809,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>44682</v>
       </c>
@@ -3828,7 +3829,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>44713</v>
       </c>
@@ -3848,7 +3849,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>44743</v>
       </c>
@@ -3868,7 +3869,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>44774</v>
       </c>
@@ -3888,7 +3889,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>44805</v>
       </c>
@@ -3908,7 +3909,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="49"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>44835</v>
       </c>
@@ -3928,7 +3929,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="49"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>44866</v>
       </c>
@@ -3954,7 +3955,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>44896</v>
       </c>
@@ -3978,7 +3979,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>47</v>
@@ -4000,7 +4001,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>47</v>
@@ -4022,7 +4023,7 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="48" t="s">
         <v>106</v>
       </c>
@@ -4040,7 +4041,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>44927</v>
       </c>
@@ -4060,7 +4061,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="49"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>44958</v>
       </c>
@@ -4086,7 +4087,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>44986</v>
       </c>
@@ -4112,7 +4113,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>45017</v>
       </c>
@@ -4138,7 +4139,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>47</v>
@@ -4160,15 +4161,13 @@
         <v>45034</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="40"/>
-      <c r="B111" s="20" t="s">
-        <v>56</v>
-      </c>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B111" s="20"/>
       <c r="C111" s="13"/>
-      <c r="D111" s="39">
-        <v>1</v>
-      </c>
+      <c r="D111" s="39"/>
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
       <c r="G111" s="13" t="str">
@@ -4178,13 +4177,11 @@
       <c r="H111" s="39"/>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
-      <c r="K111" s="49">
-        <v>45041</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K111" s="20"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -4200,9 +4197,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -4218,9 +4215,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4236,9 +4233,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4254,9 +4251,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4272,9 +4269,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -4290,9 +4287,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -4308,9 +4305,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -4326,9 +4323,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -4344,9 +4341,9 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -4362,9 +4359,9 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -4380,9 +4377,9 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4398,9 +4395,9 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4416,9 +4413,9 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -4434,9 +4431,9 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4452,9 +4449,9 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4470,9 +4467,9 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -4488,9 +4485,9 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -4506,9 +4503,9 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -4524,9 +4521,9 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -4542,9 +4539,9 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -4560,9 +4557,9 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
-        <v>45689</v>
+        <v>45717</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -4578,9 +4575,9 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
-        <v>45717</v>
+        <v>45748</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -4596,9 +4593,9 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
-        <v>45748</v>
+        <v>45778</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -4614,9 +4611,9 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4632,9 +4629,9 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4650,9 +4647,9 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4668,9 +4665,9 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4686,9 +4683,9 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
-        <v>45901</v>
+        <v>45931</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -4704,9 +4701,9 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
-        <v>45931</v>
+        <v>45962</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -4722,9 +4719,9 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
-        <v>45962</v>
+        <v>45992</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -4740,9 +4737,9 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
-        <v>45992</v>
+        <v>46023</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -4758,9 +4755,9 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
-        <v>46023</v>
+        <v>46054</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -4776,9 +4773,9 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
-        <v>46054</v>
+        <v>46082</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -4794,9 +4791,9 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
-        <v>46082</v>
+        <v>46113</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -4812,9 +4809,9 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
-        <v>46113</v>
+        <v>46143</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -4830,9 +4827,9 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
-        <v>46143</v>
+        <v>46174</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -4848,9 +4845,9 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
-        <v>46174</v>
+        <v>46204</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -4866,9 +4863,9 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
-        <v>46204</v>
+        <v>46235</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -4884,9 +4881,9 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
-        <v>46235</v>
+        <v>46266</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -4902,9 +4899,9 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
-        <v>46266</v>
+        <v>46296</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -4920,9 +4917,9 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
-        <v>46296</v>
+        <v>46327</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -4938,9 +4935,9 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
-        <v>46327</v>
+        <v>46357</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -4956,9 +4953,9 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
-        <v>46357</v>
+        <v>46388</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -4974,9 +4971,9 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
-        <v>46388</v>
+        <v>46419</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -4992,9 +4989,9 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
-        <v>46419</v>
+        <v>46447</v>
       </c>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -5010,9 +5007,9 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
-        <v>46447</v>
+        <v>46478</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -5028,9 +5025,9 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
-        <v>46478</v>
+        <v>46508</v>
       </c>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -5046,9 +5043,9 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
-        <v>46508</v>
+        <v>46539</v>
       </c>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -5064,9 +5061,9 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
-        <v>46539</v>
+        <v>46569</v>
       </c>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -5082,9 +5079,9 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
-        <v>46569</v>
+        <v>46600</v>
       </c>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -5100,9 +5097,9 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
-        <v>46600</v>
+        <v>46631</v>
       </c>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -5118,10 +5115,8 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="40">
-        <v>46631</v>
-      </c>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="40"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
       <c r="D164" s="39"/>
@@ -5136,7 +5131,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -5152,7 +5147,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -5168,7 +5163,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -5184,7 +5179,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -5200,7 +5195,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -5216,7 +5211,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -5232,7 +5227,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -5248,7 +5243,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -5264,7 +5259,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -5280,7 +5275,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -5296,7 +5291,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -5312,7 +5307,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -5328,7 +5323,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -5344,7 +5339,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -5360,7 +5355,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -5376,7 +5371,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -5392,7 +5387,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -5408,7 +5403,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -5424,7 +5419,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -5440,7 +5435,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -5456,7 +5451,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -5472,7 +5467,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -5488,7 +5483,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -5504,7 +5499,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -5520,7 +5515,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -5536,7 +5531,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -5552,7 +5547,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -5568,7 +5563,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -5584,7 +5579,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -5600,7 +5595,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -5616,7 +5611,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -5632,7 +5627,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -5648,7 +5643,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -5664,7 +5659,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -5680,7 +5675,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -5696,7 +5691,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -5712,7 +5707,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -5728,7 +5723,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -5744,7 +5739,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -5760,7 +5755,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -5776,7 +5771,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -5792,7 +5787,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -5808,7 +5803,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -5824,7 +5819,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -5840,7 +5835,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -5856,7 +5851,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -5872,7 +5867,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -5888,7 +5883,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -5904,7 +5899,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -5920,7 +5915,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -5936,7 +5931,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -5952,7 +5947,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -5968,7 +5963,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -5984,7 +5979,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -6000,7 +5995,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -6016,7 +6011,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40"/>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -6032,7 +6027,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -6048,7 +6043,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -6064,7 +6059,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -6080,7 +6075,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -6096,7 +6091,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -6112,7 +6107,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -6128,7 +6123,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -6144,7 +6139,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -6160,7 +6155,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
@@ -6176,7 +6171,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20"/>
       <c r="C230" s="13"/>
@@ -6192,7 +6187,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20"/>
       <c r="C231" s="13"/>
@@ -6208,7 +6203,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20"/>
       <c r="C232" s="13"/>
@@ -6224,7 +6219,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20"/>
       <c r="C233" s="13"/>
@@ -6240,7 +6235,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20"/>
       <c r="C234" s="13"/>
@@ -6256,7 +6251,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20"/>
       <c r="C235" s="13"/>
@@ -6272,57 +6267,41 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="40"/>
-      <c r="B236" s="20"/>
-      <c r="C236" s="13"/>
-      <c r="D236" s="39"/>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A236" s="41"/>
+      <c r="B236" s="15"/>
+      <c r="C236" s="42"/>
+      <c r="D236" s="43"/>
       <c r="E236" s="9"/>
-      <c r="F236" s="20"/>
-      <c r="G236" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H236" s="39"/>
+      <c r="F236" s="15"/>
+      <c r="G236" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H236" s="43"/>
       <c r="I236" s="9"/>
-      <c r="J236" s="11"/>
-      <c r="K236" s="20"/>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="41"/>
-      <c r="B237" s="15"/>
-      <c r="C237" s="42"/>
-      <c r="D237" s="43"/>
-      <c r="E237" s="9"/>
-      <c r="F237" s="15"/>
-      <c r="G237" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H237" s="43"/>
-      <c r="I237" s="9"/>
-      <c r="J237" s="12"/>
-      <c r="K237" s="15"/>
+      <c r="J236" s="12"/>
+      <c r="K236" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6345,34 +6324,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A58"/>
-      <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A67" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6384,16 +6363,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6402,16 +6381,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6422,18 +6401,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6441,7 +6420,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6454,24 +6433,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6506,7 +6485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6530,7 +6509,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -6552,7 +6531,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6574,7 +6553,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>44</v>
@@ -6594,7 +6573,7 @@
         <v>43129</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43132</v>
       </c>
@@ -6616,7 +6595,7 @@
         <v>43214</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43221</v>
       </c>
@@ -6638,7 +6617,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43252</v>
       </c>
@@ -6660,7 +6639,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43282</v>
       </c>
@@ -6682,7 +6661,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43313</v>
       </c>
@@ -6704,7 +6683,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43344</v>
       </c>
@@ -6726,7 +6705,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>57</v>
@@ -6746,7 +6725,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43405</v>
       </c>
@@ -6768,7 +6747,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43435</v>
       </c>
@@ -6788,7 +6767,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
         <v>61</v>
       </c>
@@ -6806,7 +6785,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43466</v>
       </c>
@@ -6828,7 +6807,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43497</v>
       </c>
@@ -6850,7 +6829,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43556</v>
       </c>
@@ -6872,7 +6851,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="48" t="s">
         <v>78</v>
       </c>
@@ -6890,7 +6869,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43831</v>
       </c>
@@ -6912,7 +6891,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>44</v>
@@ -6932,7 +6911,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43862</v>
       </c>
@@ -6954,7 +6933,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>44</v>
@@ -6974,7 +6953,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
         <v>86</v>
       </c>
@@ -6992,7 +6971,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>44197</v>
       </c>
@@ -7014,7 +6993,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>44</v>
@@ -7034,7 +7013,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>44228</v>
       </c>
@@ -7056,7 +7035,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>66</v>
@@ -7076,7 +7055,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>69</v>
@@ -7096,7 +7075,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>44256</v>
       </c>
@@ -7118,7 +7097,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>44287</v>
       </c>
@@ -7140,7 +7119,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>44317</v>
       </c>
@@ -7162,7 +7141,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>44348</v>
       </c>
@@ -7184,7 +7163,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="41"/>
       <c r="B41" s="15" t="s">
         <v>47</v>
@@ -7204,7 +7183,7 @@
         <v>44359</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>44409</v>
       </c>
@@ -7226,7 +7205,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44470</v>
       </c>
@@ -7250,7 +7229,7 @@
         <v>44474</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>66</v>
@@ -7272,7 +7251,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>47</v>
@@ -7292,7 +7271,7 @@
         <v>44494</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="48" t="s">
         <v>93</v>
       </c>
@@ -7310,7 +7289,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44562</v>
       </c>
@@ -7332,7 +7311,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>56</v>
@@ -7354,7 +7333,7 @@
         <v>44587</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44593</v>
       </c>
@@ -7378,7 +7357,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>44</v>
@@ -7398,7 +7377,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>44</v>
@@ -7418,7 +7397,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>47</v>
@@ -7440,7 +7419,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44743</v>
       </c>
@@ -7464,7 +7443,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44774</v>
       </c>
@@ -7488,7 +7467,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44805</v>
       </c>
@@ -7512,7 +7491,7 @@
         <v>44833</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44835</v>
       </c>
@@ -7536,7 +7515,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>47</v>
@@ -7558,7 +7537,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>101</v>
@@ -7582,7 +7561,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44866</v>
       </c>
@@ -7606,7 +7585,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>45</v>
@@ -7628,7 +7607,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>104</v>
@@ -7650,7 +7629,7 @@
         <v>44886</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>104</v>
@@ -7672,7 +7651,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44896</v>
       </c>
@@ -7696,7 +7675,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>104</v>
@@ -7714,7 +7693,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="48" t="s">
         <v>106</v>
       </c>
@@ -7732,7 +7711,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44927</v>
       </c>
@@ -7754,7 +7733,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>44</v>
@@ -7774,7 +7753,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44958</v>
       </c>
@@ -7796,7 +7775,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>47</v>
@@ -7814,7 +7793,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44986</v>
       </c>
@@ -7838,7 +7817,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>45</v>
@@ -7860,7 +7839,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>45017</v>
       </c>
@@ -7884,7 +7863,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>56</v>
@@ -7906,7 +7885,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>45047</v>
       </c>
@@ -7930,7 +7909,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7946,7 +7925,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7962,7 +7941,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7978,7 +7957,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7994,7 +7973,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -8010,7 +7989,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -8026,7 +8005,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -8042,7 +8021,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -8058,7 +8037,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -8074,7 +8053,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -8090,7 +8069,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -8106,7 +8085,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -8122,7 +8101,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -8138,7 +8117,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -8154,7 +8133,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -8170,7 +8149,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -8186,7 +8165,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -8202,7 +8181,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -8218,7 +8197,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -8234,7 +8213,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -8250,7 +8229,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -8266,7 +8245,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -8282,7 +8261,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -8298,7 +8277,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -8314,7 +8293,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -8330,7 +8309,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -8346,7 +8325,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -8362,7 +8341,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -8378,7 +8357,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -8394,7 +8373,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -8410,7 +8389,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -8426,7 +8405,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -8442,7 +8421,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -8458,7 +8437,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -8474,7 +8453,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -8490,7 +8469,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -8506,7 +8485,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -8522,7 +8501,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -8538,7 +8517,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -8554,7 +8533,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -8570,7 +8549,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -8586,7 +8565,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8602,7 +8581,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8618,7 +8597,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8634,7 +8613,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8650,7 +8629,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8666,7 +8645,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8682,7 +8661,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8698,7 +8677,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8714,7 +8693,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8730,7 +8709,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8746,7 +8725,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8762,7 +8741,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8778,7 +8757,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8794,7 +8773,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8810,7 +8789,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8826,7 +8805,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -8842,7 +8821,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -8858,7 +8837,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -8874,7 +8853,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -8890,7 +8869,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -8906,7 +8885,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -8922,7 +8901,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -8938,7 +8917,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -8954,7 +8933,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -8970,7 +8949,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -8986,7 +8965,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -9002,7 +8981,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -9018,7 +8997,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -9034,7 +9013,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -9050,7 +9029,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -9066,7 +9045,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -9082,7 +9061,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -9098,7 +9077,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -9114,7 +9093,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -9130,7 +9109,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -9146,7 +9125,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -9162,7 +9141,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -9178,7 +9157,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -9194,7 +9173,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -9210,7 +9189,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -9226,7 +9205,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -9242,7 +9221,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -9258,7 +9237,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -9274,7 +9253,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -9290,7 +9269,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -9306,7 +9285,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -9322,7 +9301,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -9338,7 +9317,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -9354,7 +9333,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -9370,7 +9349,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -9386,7 +9365,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -9402,7 +9381,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -9418,7 +9397,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -9434,7 +9413,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -9450,7 +9429,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -9466,7 +9445,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -9482,7 +9461,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -9498,7 +9477,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -9514,7 +9493,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -9530,7 +9509,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -9546,7 +9525,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -9562,7 +9541,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -9578,7 +9557,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -9594,7 +9573,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -9610,7 +9589,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -9626,7 +9605,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -9642,7 +9621,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -9658,7 +9637,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -9674,7 +9653,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -9690,7 +9669,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -9706,7 +9685,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -9722,7 +9701,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -9738,7 +9717,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -9754,7 +9733,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -9770,7 +9749,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -9786,7 +9765,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -9802,7 +9781,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -9818,7 +9797,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -9834,7 +9813,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -9850,7 +9829,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="41"/>
       <c r="B195" s="15"/>
       <c r="C195" s="42"/>
@@ -9881,10 +9860,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9907,28 +9886,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -9941,7 +9920,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -9970,7 +9949,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>107.80500000000001</v>
       </c>
@@ -9994,17 +9973,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -10025,7 +10004,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -10052,7 +10031,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -10078,7 +10057,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -10104,7 +10083,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -10130,7 +10109,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -10156,7 +10135,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -10182,7 +10161,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -10208,7 +10187,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -10234,7 +10213,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -10254,7 +10233,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -10274,7 +10253,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -10294,7 +10273,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -10315,7 +10294,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -10336,7 +10315,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -10357,7 +10336,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -10378,7 +10357,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -10399,7 +10378,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -10420,7 +10399,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -10441,7 +10420,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -10462,7 +10441,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -10483,7 +10462,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -10504,7 +10483,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -10525,7 +10504,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -10546,7 +10525,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -10567,7 +10546,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -10588,7 +10567,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -10609,7 +10588,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -10630,7 +10609,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -10651,7 +10630,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -10672,7 +10651,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -10693,7 +10672,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -10714,7 +10693,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -10723,7 +10702,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -10732,7 +10711,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -10741,7 +10720,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -10750,7 +10729,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -10759,7 +10738,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -10768,7 +10747,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -10777,7 +10756,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -10786,7 +10765,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -10795,7 +10774,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -10804,7 +10783,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -10813,7 +10792,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -10822,7 +10801,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -10831,7 +10810,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -10840,7 +10819,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -10849,7 +10828,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -10858,7 +10837,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -10867,7 +10846,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -10876,7 +10855,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -10885,7 +10864,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -10894,7 +10873,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -10903,7 +10882,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -10912,7 +10891,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -10921,7 +10900,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -10930,7 +10909,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -10939,7 +10918,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -10948,7 +10927,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -10957,7 +10936,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -10966,7 +10945,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -10975,7 +10954,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/GATPANDAN, MICHAEL.xlsx
+++ b/NEW HR/GATPANDAN, MICHAEL.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C97181-4689-4399-88A0-EAFC37098040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="115">
   <si>
     <t>PERIOD</t>
   </si>
@@ -376,12 +375,18 @@
   </si>
   <si>
     <t>GSO</t>
+  </si>
+  <si>
+    <t>06/8,9/2023</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -763,14 +768,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -780,9 +788,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1311,25 +1316,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K236" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K236" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1341,25 +1346,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K195" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K195" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1666,34 +1671,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K236"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A100" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3990" topLeftCell="A97" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="E112" sqref="E112"/>
+      <selection pane="bottomLeft" activeCell="K112" sqref="K112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1705,16 +1710,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1723,16 +1728,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1743,16 +1748,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1760,7 +1765,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1773,24 +1778,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1825,7 +1830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1849,7 +1854,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -1871,7 +1876,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1891,7 +1896,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="49"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1917,7 +1922,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>49</v>
@@ -1939,7 +1944,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43160</v>
       </c>
@@ -1959,7 +1964,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -1979,7 +1984,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43221</v>
       </c>
@@ -2005,7 +2010,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>49</v>
@@ -2027,7 +2032,7 @@
         <v>43236</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43252</v>
       </c>
@@ -2053,7 +2058,7 @@
         <v>43255</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43282</v>
       </c>
@@ -2079,7 +2084,7 @@
         <v>43291</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>47</v>
@@ -2101,7 +2106,7 @@
         <v>43304</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>47</v>
@@ -2123,7 +2128,7 @@
         <v>43312</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43313</v>
       </c>
@@ -2149,7 +2154,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>47</v>
@@ -2171,7 +2176,7 @@
         <v>43321</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43344</v>
       </c>
@@ -2197,7 +2202,7 @@
         <v>43371</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43374</v>
       </c>
@@ -2223,7 +2228,7 @@
         <v>43375</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>56</v>
@@ -2245,7 +2250,7 @@
         <v>43389</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>47</v>
@@ -2267,7 +2272,7 @@
         <v>43403</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43405</v>
       </c>
@@ -2293,7 +2298,7 @@
         <v>43410</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>47</v>
@@ -2315,7 +2320,7 @@
         <v>43418</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>49</v>
@@ -2337,7 +2342,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43435</v>
       </c>
@@ -2357,7 +2362,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
         <v>61</v>
       </c>
@@ -2375,7 +2380,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43466</v>
       </c>
@@ -2401,7 +2406,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43497</v>
       </c>
@@ -2427,7 +2432,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>64</v>
@@ -2449,7 +2454,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>47</v>
@@ -2471,7 +2476,7 @@
         <v>43516</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43525</v>
       </c>
@@ -2497,7 +2502,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43556</v>
       </c>
@@ -2523,7 +2528,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43586</v>
       </c>
@@ -2549,7 +2554,7 @@
         <v>43587</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>66</v>
@@ -2571,7 +2576,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>69</v>
@@ -2593,7 +2598,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43617</v>
       </c>
@@ -2619,7 +2624,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43647</v>
       </c>
@@ -2645,7 +2650,7 @@
         <v>43654</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43313</v>
       </c>
@@ -2671,7 +2676,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>47</v>
@@ -2693,7 +2698,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>69</v>
@@ -2715,7 +2720,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43709</v>
       </c>
@@ -2741,7 +2746,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>43739</v>
       </c>
@@ -2767,7 +2772,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>47</v>
@@ -2789,7 +2794,7 @@
         <v>43749</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>74</v>
@@ -2811,7 +2816,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>43770</v>
       </c>
@@ -2831,7 +2836,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>43800</v>
       </c>
@@ -2857,7 +2862,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>45</v>
@@ -2879,7 +2884,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
         <v>78</v>
       </c>
@@ -2897,7 +2902,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>43831</v>
       </c>
@@ -2917,7 +2922,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>43862</v>
       </c>
@@ -2943,7 +2948,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>43891</v>
       </c>
@@ -2969,7 +2974,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>47</v>
@@ -2991,7 +2996,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>43922</v>
       </c>
@@ -3011,7 +3016,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>43952</v>
       </c>
@@ -3037,7 +3042,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>43983</v>
       </c>
@@ -3063,7 +3068,7 @@
         <v>43986</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>47</v>
@@ -3085,7 +3090,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>47</v>
@@ -3107,7 +3112,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44013</v>
       </c>
@@ -3133,7 +3138,7 @@
         <v>44039</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44044</v>
       </c>
@@ -3153,7 +3158,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44075</v>
       </c>
@@ -3179,7 +3184,7 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>47</v>
@@ -3201,7 +3206,7 @@
         <v>44095</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>66</v>
@@ -3223,7 +3228,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44105</v>
       </c>
@@ -3249,7 +3254,7 @@
         <v>44109</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44136</v>
       </c>
@@ -3275,7 +3280,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44166</v>
       </c>
@@ -3299,7 +3304,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>66</v>
@@ -3321,7 +3326,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
         <v>86</v>
       </c>
@@ -3339,7 +3344,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44197</v>
       </c>
@@ -3363,7 +3368,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44228</v>
       </c>
@@ -3389,7 +3394,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>69</v>
@@ -3411,7 +3416,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44256</v>
       </c>
@@ -3437,7 +3442,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44287</v>
       </c>
@@ -3463,7 +3468,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44317</v>
       </c>
@@ -3489,7 +3494,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44348</v>
       </c>
@@ -3515,7 +3520,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="41"/>
       <c r="B81" s="15" t="s">
         <v>47</v>
@@ -3537,7 +3542,7 @@
         <v>44359</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44378</v>
       </c>
@@ -3557,7 +3562,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>44409</v>
       </c>
@@ -3577,7 +3582,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44440</v>
       </c>
@@ -3597,7 +3602,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>44470</v>
       </c>
@@ -3623,7 +3628,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>56</v>
@@ -3645,7 +3650,7 @@
         <v>44526</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>45</v>
@@ -3665,7 +3670,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>44501</v>
       </c>
@@ -3685,7 +3690,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>44531</v>
       </c>
@@ -3705,7 +3710,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
         <v>93</v>
       </c>
@@ -3723,7 +3728,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>44562</v>
       </c>
@@ -3749,7 +3754,7 @@
         <v>44587</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>44593</v>
       </c>
@@ -3769,7 +3774,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>44621</v>
       </c>
@@ -3789,7 +3794,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>44652</v>
       </c>
@@ -3809,7 +3814,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>44682</v>
       </c>
@@ -3829,7 +3834,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>44713</v>
       </c>
@@ -3849,7 +3854,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>44743</v>
       </c>
@@ -3869,7 +3874,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>44774</v>
       </c>
@@ -3889,7 +3894,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>44805</v>
       </c>
@@ -3909,7 +3914,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="49"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>44835</v>
       </c>
@@ -3929,7 +3934,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="49"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>44866</v>
       </c>
@@ -3955,7 +3960,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>44896</v>
       </c>
@@ -3979,7 +3984,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>47</v>
@@ -4001,7 +4006,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>47</v>
@@ -4023,7 +4028,7 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="48" t="s">
         <v>106</v>
       </c>
@@ -4041,7 +4046,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>44927</v>
       </c>
@@ -4061,7 +4066,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="49"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>44958</v>
       </c>
@@ -4087,7 +4092,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>44986</v>
       </c>
@@ -4113,7 +4118,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>45017</v>
       </c>
@@ -4139,7 +4144,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>47</v>
@@ -4161,7 +4166,7 @@
         <v>45034</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>45047</v>
       </c>
@@ -4179,7 +4184,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>45078</v>
       </c>
@@ -4197,7 +4202,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>45108</v>
       </c>
@@ -4215,7 +4220,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>45139</v>
       </c>
@@ -4233,7 +4238,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>45170</v>
       </c>
@@ -4251,7 +4256,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>45200</v>
       </c>
@@ -4269,7 +4274,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>45231</v>
       </c>
@@ -4287,7 +4292,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>45261</v>
       </c>
@@ -4305,7 +4310,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>45292</v>
       </c>
@@ -4323,7 +4328,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>45323</v>
       </c>
@@ -4341,7 +4346,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>45352</v>
       </c>
@@ -4359,7 +4364,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>45383</v>
       </c>
@@ -4377,7 +4382,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>45413</v>
       </c>
@@ -4395,7 +4400,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>45444</v>
       </c>
@@ -4413,7 +4418,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>45474</v>
       </c>
@@ -4431,7 +4436,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>45505</v>
       </c>
@@ -4449,7 +4454,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>45536</v>
       </c>
@@ -4467,7 +4472,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>45566</v>
       </c>
@@ -4485,7 +4490,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>45597</v>
       </c>
@@ -4503,7 +4508,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>45627</v>
       </c>
@@ -4521,7 +4526,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>45658</v>
       </c>
@@ -4539,7 +4544,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>45689</v>
       </c>
@@ -4557,7 +4562,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>45717</v>
       </c>
@@ -4575,7 +4580,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>45748</v>
       </c>
@@ -4593,7 +4598,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>45778</v>
       </c>
@@ -4611,7 +4616,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>45809</v>
       </c>
@@ -4629,7 +4634,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>45839</v>
       </c>
@@ -4647,7 +4652,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>45870</v>
       </c>
@@ -4665,7 +4670,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>45901</v>
       </c>
@@ -4683,7 +4688,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>45931</v>
       </c>
@@ -4701,7 +4706,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>45962</v>
       </c>
@@ -4719,7 +4724,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>45992</v>
       </c>
@@ -4737,7 +4742,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>46023</v>
       </c>
@@ -4755,7 +4760,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>46054</v>
       </c>
@@ -4773,7 +4778,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>46082</v>
       </c>
@@ -4791,7 +4796,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>46113</v>
       </c>
@@ -4809,7 +4814,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>46143</v>
       </c>
@@ -4827,7 +4832,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>46174</v>
       </c>
@@ -4845,7 +4850,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>46204</v>
       </c>
@@ -4863,7 +4868,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>46235</v>
       </c>
@@ -4881,7 +4886,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>46266</v>
       </c>
@@ -4899,7 +4904,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>46296</v>
       </c>
@@ -4917,7 +4922,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>46327</v>
       </c>
@@ -4935,7 +4940,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>46357</v>
       </c>
@@ -4953,7 +4958,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>46388</v>
       </c>
@@ -4971,7 +4976,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>46419</v>
       </c>
@@ -4989,7 +4994,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>46447</v>
       </c>
@@ -5007,7 +5012,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>46478</v>
       </c>
@@ -5025,7 +5030,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>46508</v>
       </c>
@@ -5043,7 +5048,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>46539</v>
       </c>
@@ -5061,7 +5066,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>46569</v>
       </c>
@@ -5079,7 +5084,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>46600</v>
       </c>
@@ -5097,7 +5102,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>46631</v>
       </c>
@@ -5115,7 +5120,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -5131,7 +5136,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -5147,7 +5152,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -5163,7 +5168,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -5179,7 +5184,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -5195,7 +5200,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -5211,7 +5216,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -5227,7 +5232,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -5243,7 +5248,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -5259,7 +5264,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -5275,7 +5280,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -5291,7 +5296,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -5307,7 +5312,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -5323,7 +5328,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -5339,7 +5344,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -5355,7 +5360,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -5371,7 +5376,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -5387,7 +5392,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -5403,7 +5408,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -5419,7 +5424,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -5435,7 +5440,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -5451,7 +5456,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -5467,7 +5472,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -5483,7 +5488,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -5499,7 +5504,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -5515,7 +5520,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -5531,7 +5536,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -5547,7 +5552,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -5563,7 +5568,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -5579,7 +5584,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -5595,7 +5600,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -5611,7 +5616,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -5627,7 +5632,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -5643,7 +5648,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -5659,7 +5664,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -5675,7 +5680,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -5691,7 +5696,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -5707,7 +5712,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -5723,7 +5728,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -5739,7 +5744,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -5755,7 +5760,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -5771,7 +5776,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -5787,7 +5792,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -5803,7 +5808,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -5819,7 +5824,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -5835,7 +5840,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -5851,7 +5856,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -5867,7 +5872,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -5883,7 +5888,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -5899,7 +5904,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -5915,7 +5920,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -5931,7 +5936,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -5947,7 +5952,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -5963,7 +5968,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -5979,7 +5984,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -5995,7 +6000,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -6011,7 +6016,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -6027,7 +6032,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -6043,7 +6048,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -6059,7 +6064,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -6075,7 +6080,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -6091,7 +6096,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -6107,7 +6112,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -6123,7 +6128,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -6139,7 +6144,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -6155,7 +6160,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
@@ -6171,7 +6176,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20"/>
       <c r="C230" s="13"/>
@@ -6187,7 +6192,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20"/>
       <c r="C231" s="13"/>
@@ -6203,7 +6208,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20"/>
       <c r="C232" s="13"/>
@@ -6219,7 +6224,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20"/>
       <c r="C233" s="13"/>
@@ -6235,7 +6240,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20"/>
       <c r="C234" s="13"/>
@@ -6251,7 +6256,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20"/>
       <c r="C235" s="13"/>
@@ -6267,7 +6272,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="41"/>
       <c r="B236" s="15"/>
       <c r="C236" s="42"/>
@@ -6285,23 +6290,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6324,34 +6329,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K195"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A67" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
+      <selection pane="bottomLeft" activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6363,16 +6368,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6381,16 +6386,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6401,18 +6406,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6420,7 +6425,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6433,24 +6438,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6485,7 +6490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6494,7 +6499,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>77.695999999999998</v>
+        <v>74.695999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6509,7 +6514,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -6531,7 +6536,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6553,7 +6558,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>44</v>
@@ -6573,7 +6578,7 @@
         <v>43129</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43132</v>
       </c>
@@ -6595,7 +6600,7 @@
         <v>43214</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43221</v>
       </c>
@@ -6617,7 +6622,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43252</v>
       </c>
@@ -6639,7 +6644,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43282</v>
       </c>
@@ -6661,7 +6666,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43313</v>
       </c>
@@ -6683,7 +6688,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43344</v>
       </c>
@@ -6705,7 +6710,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>57</v>
@@ -6725,7 +6730,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43405</v>
       </c>
@@ -6747,7 +6752,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43435</v>
       </c>
@@ -6767,7 +6772,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>61</v>
       </c>
@@ -6785,7 +6790,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43466</v>
       </c>
@@ -6807,7 +6812,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43497</v>
       </c>
@@ -6829,7 +6834,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43556</v>
       </c>
@@ -6851,7 +6856,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>78</v>
       </c>
@@ -6869,7 +6874,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43831</v>
       </c>
@@ -6891,7 +6896,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>44</v>
@@ -6911,7 +6916,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43862</v>
       </c>
@@ -6933,7 +6938,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>44</v>
@@ -6953,7 +6958,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
         <v>86</v>
       </c>
@@ -6971,7 +6976,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>44197</v>
       </c>
@@ -6993,7 +6998,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>44</v>
@@ -7013,7 +7018,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>44228</v>
       </c>
@@ -7035,7 +7040,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>66</v>
@@ -7055,7 +7060,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>69</v>
@@ -7075,7 +7080,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>44256</v>
       </c>
@@ -7097,7 +7102,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>44287</v>
       </c>
@@ -7119,7 +7124,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>44317</v>
       </c>
@@ -7141,7 +7146,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>44348</v>
       </c>
@@ -7163,7 +7168,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
       <c r="B41" s="15" t="s">
         <v>47</v>
@@ -7183,7 +7188,7 @@
         <v>44359</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>44409</v>
       </c>
@@ -7205,7 +7210,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44470</v>
       </c>
@@ -7229,7 +7234,7 @@
         <v>44474</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>66</v>
@@ -7251,7 +7256,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>47</v>
@@ -7271,7 +7276,7 @@
         <v>44494</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
         <v>93</v>
       </c>
@@ -7289,7 +7294,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44562</v>
       </c>
@@ -7311,7 +7316,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>56</v>
@@ -7333,7 +7338,7 @@
         <v>44587</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44593</v>
       </c>
@@ -7357,7 +7362,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>44</v>
@@ -7377,7 +7382,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>44</v>
@@ -7397,7 +7402,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>47</v>
@@ -7419,7 +7424,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44743</v>
       </c>
@@ -7443,7 +7448,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44774</v>
       </c>
@@ -7467,7 +7472,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44805</v>
       </c>
@@ -7491,7 +7496,7 @@
         <v>44833</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44835</v>
       </c>
@@ -7515,7 +7520,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>47</v>
@@ -7537,7 +7542,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>101</v>
@@ -7561,7 +7566,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44866</v>
       </c>
@@ -7585,7 +7590,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>45</v>
@@ -7607,7 +7612,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>104</v>
@@ -7629,7 +7634,7 @@
         <v>44886</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>104</v>
@@ -7651,7 +7656,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44896</v>
       </c>
@@ -7675,7 +7680,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>104</v>
@@ -7693,7 +7698,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
         <v>106</v>
       </c>
@@ -7711,7 +7716,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44927</v>
       </c>
@@ -7733,7 +7738,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>44</v>
@@ -7753,7 +7758,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44958</v>
       </c>
@@ -7775,7 +7780,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>47</v>
@@ -7793,7 +7798,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44986</v>
       </c>
@@ -7817,7 +7822,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>45</v>
@@ -7839,7 +7844,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>45017</v>
       </c>
@@ -7863,7 +7868,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>56</v>
@@ -7885,7 +7890,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>45047</v>
       </c>
@@ -7909,11 +7914,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
-      <c r="B75" s="20"/>
+      <c r="B75" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C75" s="13"/>
-      <c r="D75" s="39"/>
+      <c r="D75" s="39">
+        <v>2</v>
+      </c>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
       <c r="G75" s="13" t="str">
@@ -7923,13 +7932,21 @@
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="20"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="40"/>
-      <c r="B76" s="20"/>
+      <c r="K75" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C76" s="13"/>
-      <c r="D76" s="39"/>
+      <c r="D76" s="39">
+        <v>1</v>
+      </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
       <c r="G76" s="13" t="str">
@@ -7939,9 +7956,11 @@
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="20"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K76" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7957,7 +7976,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7973,7 +7992,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7989,7 +8008,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -8005,7 +8024,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -8021,7 +8040,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -8037,7 +8056,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -8053,7 +8072,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -8069,7 +8088,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -8085,7 +8104,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -8101,7 +8120,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -8117,7 +8136,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -8133,7 +8152,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -8149,7 +8168,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -8165,7 +8184,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -8181,7 +8200,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -8197,7 +8216,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -8213,7 +8232,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -8229,7 +8248,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -8245,7 +8264,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -8261,7 +8280,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -8277,7 +8296,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -8293,7 +8312,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -8309,7 +8328,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -8325,7 +8344,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -8341,7 +8360,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -8357,7 +8376,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -8373,7 +8392,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -8389,7 +8408,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -8405,7 +8424,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -8421,7 +8440,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -8437,7 +8456,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -8453,7 +8472,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -8469,7 +8488,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -8485,7 +8504,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -8501,7 +8520,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -8517,7 +8536,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -8533,7 +8552,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -8549,7 +8568,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -8565,7 +8584,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8581,7 +8600,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8597,7 +8616,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8613,7 +8632,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8629,7 +8648,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8645,7 +8664,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8661,7 +8680,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8677,7 +8696,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8693,7 +8712,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8709,7 +8728,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8725,7 +8744,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8741,7 +8760,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8757,7 +8776,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8773,7 +8792,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8789,7 +8808,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8805,7 +8824,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -8821,7 +8840,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -8837,7 +8856,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -8853,7 +8872,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -8869,7 +8888,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -8885,7 +8904,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -8901,7 +8920,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -8917,7 +8936,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -8933,7 +8952,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -8949,7 +8968,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -8965,7 +8984,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -8981,7 +9000,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -8997,7 +9016,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -9013,7 +9032,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -9029,7 +9048,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -9045,7 +9064,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -9061,7 +9080,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -9077,7 +9096,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -9093,7 +9112,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -9109,7 +9128,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -9125,7 +9144,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -9141,7 +9160,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -9157,7 +9176,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -9173,7 +9192,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -9189,7 +9208,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -9205,7 +9224,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -9221,7 +9240,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -9237,7 +9256,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -9253,7 +9272,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -9269,7 +9288,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -9285,7 +9304,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -9301,7 +9320,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -9317,7 +9336,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -9333,7 +9352,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -9349,7 +9368,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -9365,7 +9384,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -9381,7 +9400,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -9397,7 +9416,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -9413,7 +9432,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -9429,7 +9448,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -9445,7 +9464,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -9461,7 +9480,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -9477,7 +9496,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -9493,7 +9512,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -9509,7 +9528,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -9525,7 +9544,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -9541,7 +9560,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -9557,7 +9576,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -9573,7 +9592,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -9589,7 +9608,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -9605,7 +9624,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -9621,7 +9640,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -9637,7 +9656,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -9653,7 +9672,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -9669,7 +9688,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -9685,7 +9704,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -9701,7 +9720,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -9717,7 +9736,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -9733,7 +9752,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -9749,7 +9768,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -9765,7 +9784,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -9781,7 +9800,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -9797,7 +9816,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -9813,7 +9832,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -9829,7 +9848,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="41"/>
       <c r="B195" s="15"/>
       <c r="C195" s="42"/>
@@ -9860,10 +9879,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9886,28 +9905,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -9920,7 +9939,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -9949,7 +9968,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>107.80500000000001</v>
       </c>
@@ -9973,17 +9992,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -10004,7 +10023,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -10031,7 +10050,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -10057,7 +10076,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -10083,7 +10102,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -10109,7 +10128,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -10135,7 +10154,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -10161,7 +10180,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -10187,7 +10206,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -10213,7 +10232,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -10233,7 +10252,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -10253,7 +10272,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -10273,7 +10292,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -10294,7 +10313,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -10315,7 +10334,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -10336,7 +10355,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -10357,7 +10376,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -10378,7 +10397,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -10399,7 +10418,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -10420,7 +10439,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -10441,7 +10460,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -10462,7 +10481,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -10483,7 +10502,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -10504,7 +10523,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -10525,7 +10544,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -10546,7 +10565,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -10567,7 +10586,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -10588,7 +10607,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -10609,7 +10628,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -10630,7 +10649,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -10651,7 +10670,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -10672,7 +10691,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -10693,7 +10712,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -10702,7 +10721,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -10711,7 +10730,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -10720,7 +10739,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -10729,7 +10748,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -10738,7 +10757,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -10747,7 +10766,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -10756,7 +10775,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -10765,7 +10784,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -10774,7 +10793,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -10783,7 +10802,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -10792,7 +10811,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -10801,7 +10820,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -10810,7 +10829,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -10819,7 +10838,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -10828,7 +10847,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -10837,7 +10856,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -10846,7 +10865,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -10855,7 +10874,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -10864,7 +10883,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -10873,7 +10892,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -10882,7 +10901,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -10891,7 +10910,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -10900,7 +10919,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -10909,7 +10928,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -10918,7 +10937,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -10927,7 +10946,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -10936,7 +10955,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -10945,7 +10964,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -10954,7 +10973,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/GATPANDAN, MICHAEL.xlsx
+++ b/NEW HR/GATPANDAN, MICHAEL.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="116">
   <si>
     <t>PERIOD</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>6/22-23/2023</t>
   </si>
 </sst>
 </file>
@@ -768,17 +771,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -788,6 +788,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1710,14 +1713,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1728,14 +1731,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1748,14 +1751,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1781,18 +1784,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6290,17 +6293,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -6338,7 +6341,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="K77" sqref="K77"/>
+      <selection pane="bottomLeft" activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6368,14 +6371,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6386,14 +6389,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6406,16 +6409,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6441,18 +6444,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6499,7 +6502,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>74.695999999999998</v>
+        <v>72.695999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -7962,9 +7965,13 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
-      <c r="B77" s="20"/>
+      <c r="B77" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C77" s="13"/>
-      <c r="D77" s="39"/>
+      <c r="D77" s="39">
+        <v>2</v>
+      </c>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
       <c r="G77" s="13" t="str">
@@ -7974,7 +7981,9 @@
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="20"/>
+      <c r="K77" s="20" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>

--- a/NEW HR/GATPANDAN, MICHAEL.xlsx
+++ b/NEW HR/GATPANDAN, MICHAEL.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707BF9DD-B43E-46D8-A457-2945ED196040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="24" yWindow="48" windowWidth="23016" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="117">
   <si>
     <t>PERIOD</t>
   </si>
@@ -384,12 +385,15 @@
   </si>
   <si>
     <t>6/22-23/2023</t>
+  </si>
+  <si>
+    <t>7/3,4,5/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -771,14 +775,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -788,9 +795,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1302,7 +1306,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1319,25 +1323,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K236" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K236" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1349,25 +1353,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K195" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K195" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1674,34 +1678,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K236"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3990" topLeftCell="A97" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="K112" sqref="K112"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3984" topLeftCell="A109" activePane="bottomLeft"/>
+      <selection activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="B112" sqref="B112:D113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1713,16 +1717,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1731,16 +1735,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1751,16 +1755,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1768,7 +1774,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1781,24 +1787,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1833,7 +1839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1842,7 +1848,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>56</v>
+        <v>57.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1852,12 +1858,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -1879,7 +1885,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1899,7 +1905,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="49"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1925,7 +1931,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>49</v>
@@ -1947,7 +1953,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43160</v>
       </c>
@@ -1967,7 +1973,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -1987,7 +1993,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43221</v>
       </c>
@@ -2013,7 +2019,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>49</v>
@@ -2035,7 +2041,7 @@
         <v>43236</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43252</v>
       </c>
@@ -2061,7 +2067,7 @@
         <v>43255</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43282</v>
       </c>
@@ -2087,7 +2093,7 @@
         <v>43291</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>47</v>
@@ -2109,7 +2115,7 @@
         <v>43304</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>47</v>
@@ -2131,7 +2137,7 @@
         <v>43312</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43313</v>
       </c>
@@ -2157,7 +2163,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>47</v>
@@ -2179,7 +2185,7 @@
         <v>43321</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43344</v>
       </c>
@@ -2205,7 +2211,7 @@
         <v>43371</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43374</v>
       </c>
@@ -2231,7 +2237,7 @@
         <v>43375</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>56</v>
@@ -2253,7 +2259,7 @@
         <v>43389</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>47</v>
@@ -2275,7 +2281,7 @@
         <v>43403</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43405</v>
       </c>
@@ -2301,7 +2307,7 @@
         <v>43410</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>47</v>
@@ -2323,7 +2329,7 @@
         <v>43418</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>49</v>
@@ -2345,7 +2351,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43435</v>
       </c>
@@ -2365,7 +2371,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="48" t="s">
         <v>61</v>
       </c>
@@ -2383,7 +2389,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43466</v>
       </c>
@@ -2409,7 +2415,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43497</v>
       </c>
@@ -2435,7 +2441,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>64</v>
@@ -2457,7 +2463,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>47</v>
@@ -2479,7 +2485,7 @@
         <v>43516</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43525</v>
       </c>
@@ -2505,7 +2511,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43556</v>
       </c>
@@ -2531,7 +2537,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43586</v>
       </c>
@@ -2557,7 +2563,7 @@
         <v>43587</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>66</v>
@@ -2579,7 +2585,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>69</v>
@@ -2601,7 +2607,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43617</v>
       </c>
@@ -2627,7 +2633,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43647</v>
       </c>
@@ -2653,7 +2659,7 @@
         <v>43654</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43313</v>
       </c>
@@ -2679,7 +2685,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>47</v>
@@ -2701,7 +2707,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>69</v>
@@ -2723,7 +2729,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>43709</v>
       </c>
@@ -2749,7 +2755,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>43739</v>
       </c>
@@ -2775,7 +2781,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>47</v>
@@ -2797,7 +2803,7 @@
         <v>43749</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>74</v>
@@ -2819,7 +2825,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>43770</v>
       </c>
@@ -2839,7 +2845,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>43800</v>
       </c>
@@ -2865,7 +2871,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>45</v>
@@ -2887,7 +2893,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="48" t="s">
         <v>78</v>
       </c>
@@ -2905,7 +2911,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>43831</v>
       </c>
@@ -2925,7 +2931,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>43862</v>
       </c>
@@ -2951,7 +2957,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>43891</v>
       </c>
@@ -2977,7 +2983,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>47</v>
@@ -2999,7 +3005,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>43922</v>
       </c>
@@ -3019,7 +3025,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>43952</v>
       </c>
@@ -3045,7 +3051,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>43983</v>
       </c>
@@ -3071,7 +3077,7 @@
         <v>43986</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>47</v>
@@ -3093,7 +3099,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>47</v>
@@ -3115,7 +3121,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44013</v>
       </c>
@@ -3141,7 +3147,7 @@
         <v>44039</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44044</v>
       </c>
@@ -3161,7 +3167,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44075</v>
       </c>
@@ -3187,7 +3193,7 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>47</v>
@@ -3209,7 +3215,7 @@
         <v>44095</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>66</v>
@@ -3231,7 +3237,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44105</v>
       </c>
@@ -3257,7 +3263,7 @@
         <v>44109</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44136</v>
       </c>
@@ -3283,7 +3289,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44166</v>
       </c>
@@ -3307,7 +3313,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>66</v>
@@ -3329,7 +3335,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="48" t="s">
         <v>86</v>
       </c>
@@ -3347,7 +3353,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44197</v>
       </c>
@@ -3371,7 +3377,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44228</v>
       </c>
@@ -3397,7 +3403,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>69</v>
@@ -3419,7 +3425,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44256</v>
       </c>
@@ -3445,7 +3451,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44287</v>
       </c>
@@ -3471,7 +3477,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44317</v>
       </c>
@@ -3497,7 +3503,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44348</v>
       </c>
@@ -3523,7 +3529,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="41"/>
       <c r="B81" s="15" t="s">
         <v>47</v>
@@ -3545,7 +3551,7 @@
         <v>44359</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44378</v>
       </c>
@@ -3565,7 +3571,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>44409</v>
       </c>
@@ -3585,7 +3591,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>44440</v>
       </c>
@@ -3605,7 +3611,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>44470</v>
       </c>
@@ -3631,7 +3637,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>56</v>
@@ -3653,7 +3659,7 @@
         <v>44526</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>45</v>
@@ -3673,7 +3679,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>44501</v>
       </c>
@@ -3693,7 +3699,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>44531</v>
       </c>
@@ -3713,7 +3719,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="48" t="s">
         <v>93</v>
       </c>
@@ -3731,7 +3737,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>44562</v>
       </c>
@@ -3757,7 +3763,7 @@
         <v>44587</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>44593</v>
       </c>
@@ -3777,7 +3783,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>44621</v>
       </c>
@@ -3797,7 +3803,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>44652</v>
       </c>
@@ -3817,7 +3823,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>44682</v>
       </c>
@@ -3837,7 +3843,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>44713</v>
       </c>
@@ -3857,7 +3863,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>44743</v>
       </c>
@@ -3877,7 +3883,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>44774</v>
       </c>
@@ -3897,7 +3903,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>44805</v>
       </c>
@@ -3917,7 +3923,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="49"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>44835</v>
       </c>
@@ -3937,7 +3943,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="49"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>44866</v>
       </c>
@@ -3963,7 +3969,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>44896</v>
       </c>
@@ -3987,7 +3993,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>47</v>
@@ -4009,7 +4015,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>47</v>
@@ -4031,7 +4037,7 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="48" t="s">
         <v>106</v>
       </c>
@@ -4049,7 +4055,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>44927</v>
       </c>
@@ -4069,7 +4075,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="49"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>44958</v>
       </c>
@@ -4095,7 +4101,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>44986</v>
       </c>
@@ -4121,7 +4127,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>45017</v>
       </c>
@@ -4147,7 +4153,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>47</v>
@@ -4169,25 +4175,27 @@
         <v>45034</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>45047</v>
       </c>
       <c r="B111" s="20"/>
-      <c r="C111" s="13"/>
+      <c r="C111" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D111" s="39"/>
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
-      <c r="G111" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G111" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H111" s="39"/>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>45078</v>
       </c>
@@ -4205,7 +4213,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>45108</v>
       </c>
@@ -4223,7 +4231,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>45139</v>
       </c>
@@ -4241,7 +4249,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>45170</v>
       </c>
@@ -4259,7 +4267,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>45200</v>
       </c>
@@ -4277,7 +4285,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>45231</v>
       </c>
@@ -4295,7 +4303,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>45261</v>
       </c>
@@ -4313,7 +4321,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>45292</v>
       </c>
@@ -4331,7 +4339,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>45323</v>
       </c>
@@ -4349,7 +4357,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>45352</v>
       </c>
@@ -4367,7 +4375,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>45383</v>
       </c>
@@ -4385,7 +4393,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>45413</v>
       </c>
@@ -4403,7 +4411,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>45444</v>
       </c>
@@ -4421,7 +4429,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>45474</v>
       </c>
@@ -4439,7 +4447,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>45505</v>
       </c>
@@ -4457,7 +4465,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>45536</v>
       </c>
@@ -4475,7 +4483,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>45566</v>
       </c>
@@ -4493,7 +4501,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>45597</v>
       </c>
@@ -4511,7 +4519,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>45627</v>
       </c>
@@ -4529,7 +4537,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>45658</v>
       </c>
@@ -4547,7 +4555,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>45689</v>
       </c>
@@ -4565,7 +4573,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>45717</v>
       </c>
@@ -4583,7 +4591,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>45748</v>
       </c>
@@ -4601,7 +4609,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>45778</v>
       </c>
@@ -4619,7 +4627,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>45809</v>
       </c>
@@ -4637,7 +4645,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>45839</v>
       </c>
@@ -4655,7 +4663,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>45870</v>
       </c>
@@ -4673,7 +4681,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>45901</v>
       </c>
@@ -4691,7 +4699,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>45931</v>
       </c>
@@ -4709,7 +4717,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>45962</v>
       </c>
@@ -4727,7 +4735,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>45992</v>
       </c>
@@ -4745,7 +4753,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>46023</v>
       </c>
@@ -4763,7 +4771,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>46054</v>
       </c>
@@ -4781,7 +4789,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>46082</v>
       </c>
@@ -4799,7 +4807,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <v>46113</v>
       </c>
@@ -4817,7 +4825,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>46143</v>
       </c>
@@ -4835,7 +4843,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>46174</v>
       </c>
@@ -4853,7 +4861,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>46204</v>
       </c>
@@ -4871,7 +4879,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>46235</v>
       </c>
@@ -4889,7 +4897,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>46266</v>
       </c>
@@ -4907,7 +4915,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>46296</v>
       </c>
@@ -4925,7 +4933,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>46327</v>
       </c>
@@ -4943,7 +4951,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>46357</v>
       </c>
@@ -4961,7 +4969,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>46388</v>
       </c>
@@ -4979,7 +4987,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>46419</v>
       </c>
@@ -4997,7 +5005,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>46447</v>
       </c>
@@ -5015,7 +5023,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>46478</v>
       </c>
@@ -5033,7 +5041,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>46508</v>
       </c>
@@ -5051,7 +5059,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>46539</v>
       </c>
@@ -5069,7 +5077,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>46569</v>
       </c>
@@ -5087,7 +5095,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <v>46600</v>
       </c>
@@ -5105,7 +5113,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>46631</v>
       </c>
@@ -5123,7 +5131,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -5139,7 +5147,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -5155,7 +5163,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -5171,7 +5179,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -5187,7 +5195,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -5203,7 +5211,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -5219,7 +5227,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -5235,7 +5243,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -5251,7 +5259,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -5267,7 +5275,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -5283,7 +5291,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -5299,7 +5307,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -5315,7 +5323,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -5331,7 +5339,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -5347,7 +5355,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -5363,7 +5371,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -5379,7 +5387,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -5395,7 +5403,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -5411,7 +5419,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -5427,7 +5435,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -5443,7 +5451,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -5459,7 +5467,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -5475,7 +5483,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -5491,7 +5499,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -5507,7 +5515,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -5523,7 +5531,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -5539,7 +5547,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -5555,7 +5563,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -5571,7 +5579,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -5587,7 +5595,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -5603,7 +5611,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -5619,7 +5627,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -5635,7 +5643,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -5651,7 +5659,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -5667,7 +5675,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -5683,7 +5691,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -5699,7 +5707,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -5715,7 +5723,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -5731,7 +5739,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -5747,7 +5755,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -5763,7 +5771,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -5779,7 +5787,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -5795,7 +5803,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -5811,7 +5819,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -5827,7 +5835,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -5843,7 +5851,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -5859,7 +5867,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -5875,7 +5883,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -5891,7 +5899,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -5907,7 +5915,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -5923,7 +5931,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -5939,7 +5947,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -5955,7 +5963,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -5971,7 +5979,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -5987,7 +5995,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -6003,7 +6011,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -6019,7 +6027,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40"/>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -6035,7 +6043,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -6051,7 +6059,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -6067,7 +6075,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -6083,7 +6091,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -6099,7 +6107,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -6115,7 +6123,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -6131,7 +6139,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -6147,7 +6155,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -6163,7 +6171,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
@@ -6179,7 +6187,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20"/>
       <c r="C230" s="13"/>
@@ -6195,7 +6203,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20"/>
       <c r="C231" s="13"/>
@@ -6211,7 +6219,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20"/>
       <c r="C232" s="13"/>
@@ -6227,7 +6235,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20"/>
       <c r="C233" s="13"/>
@@ -6243,7 +6251,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20"/>
       <c r="C234" s="13"/>
@@ -6259,7 +6267,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20"/>
       <c r="C235" s="13"/>
@@ -6275,7 +6283,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="41"/>
       <c r="B236" s="15"/>
       <c r="C236" s="42"/>
@@ -6293,23 +6301,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6332,34 +6340,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="K78" sqref="K78"/>
+      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6371,16 +6379,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6389,16 +6397,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6409,18 +6417,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6428,7 +6436,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6441,24 +6449,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6493,7 +6501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6502,7 +6510,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>72.695999999999998</v>
+        <v>69.695999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6517,7 +6525,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -6539,7 +6547,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6561,7 +6569,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>44</v>
@@ -6581,7 +6589,7 @@
         <v>43129</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43132</v>
       </c>
@@ -6603,7 +6611,7 @@
         <v>43214</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43221</v>
       </c>
@@ -6625,7 +6633,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43252</v>
       </c>
@@ -6647,7 +6655,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43282</v>
       </c>
@@ -6669,7 +6677,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43313</v>
       </c>
@@ -6691,7 +6699,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43344</v>
       </c>
@@ -6713,7 +6721,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>57</v>
@@ -6733,7 +6741,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43405</v>
       </c>
@@ -6755,7 +6763,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43435</v>
       </c>
@@ -6775,7 +6783,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
         <v>61</v>
       </c>
@@ -6793,7 +6801,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43466</v>
       </c>
@@ -6815,7 +6823,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43497</v>
       </c>
@@ -6837,7 +6845,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43556</v>
       </c>
@@ -6859,7 +6867,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="48" t="s">
         <v>78</v>
       </c>
@@ -6877,7 +6885,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43831</v>
       </c>
@@ -6899,7 +6907,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>44</v>
@@ -6919,7 +6927,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43862</v>
       </c>
@@ -6941,7 +6949,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>44</v>
@@ -6961,7 +6969,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
         <v>86</v>
       </c>
@@ -6979,7 +6987,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>44197</v>
       </c>
@@ -7001,7 +7009,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>44</v>
@@ -7021,7 +7029,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>44228</v>
       </c>
@@ -7043,7 +7051,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>66</v>
@@ -7063,7 +7071,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>69</v>
@@ -7083,7 +7091,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>44256</v>
       </c>
@@ -7105,7 +7113,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>44287</v>
       </c>
@@ -7127,7 +7135,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>44317</v>
       </c>
@@ -7149,7 +7157,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>44348</v>
       </c>
@@ -7171,7 +7179,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="41"/>
       <c r="B41" s="15" t="s">
         <v>47</v>
@@ -7191,7 +7199,7 @@
         <v>44359</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>44409</v>
       </c>
@@ -7213,7 +7221,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44470</v>
       </c>
@@ -7237,7 +7245,7 @@
         <v>44474</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>66</v>
@@ -7259,7 +7267,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>47</v>
@@ -7279,7 +7287,7 @@
         <v>44494</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="48" t="s">
         <v>93</v>
       </c>
@@ -7297,7 +7305,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44562</v>
       </c>
@@ -7319,7 +7327,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>56</v>
@@ -7341,7 +7349,7 @@
         <v>44587</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44593</v>
       </c>
@@ -7365,7 +7373,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>44</v>
@@ -7385,7 +7393,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>44</v>
@@ -7405,7 +7413,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>47</v>
@@ -7427,7 +7435,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44743</v>
       </c>
@@ -7451,7 +7459,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44774</v>
       </c>
@@ -7475,7 +7483,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44805</v>
       </c>
@@ -7499,7 +7507,7 @@
         <v>44833</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44835</v>
       </c>
@@ -7523,7 +7531,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>47</v>
@@ -7545,7 +7553,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>101</v>
@@ -7569,7 +7577,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44866</v>
       </c>
@@ -7593,7 +7601,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>45</v>
@@ -7615,7 +7623,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>104</v>
@@ -7637,7 +7645,7 @@
         <v>44886</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>104</v>
@@ -7659,7 +7667,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44896</v>
       </c>
@@ -7683,7 +7691,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>104</v>
@@ -7701,7 +7709,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="48" t="s">
         <v>106</v>
       </c>
@@ -7719,7 +7727,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44927</v>
       </c>
@@ -7741,7 +7749,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>44</v>
@@ -7761,7 +7769,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44958</v>
       </c>
@@ -7783,7 +7791,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>47</v>
@@ -7801,7 +7809,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44986</v>
       </c>
@@ -7825,7 +7833,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>45</v>
@@ -7847,7 +7855,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>45017</v>
       </c>
@@ -7871,7 +7879,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>56</v>
@@ -7893,7 +7901,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>45047</v>
       </c>
@@ -7917,7 +7925,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>45</v>
@@ -7939,7 +7947,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>45078</v>
       </c>
@@ -7963,7 +7971,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>45</v>
@@ -7985,11 +7993,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
-      <c r="B78" s="20"/>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="40">
+        <v>45103</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C78" s="13"/>
-      <c r="D78" s="39"/>
+      <c r="D78" s="39">
+        <v>3</v>
+      </c>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
       <c r="G78" s="13" t="str">
@@ -7999,9 +8013,11 @@
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K78" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -8017,7 +8033,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -8033,7 +8049,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -8049,7 +8065,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -8065,7 +8081,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -8081,7 +8097,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -8097,7 +8113,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -8113,7 +8129,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -8129,7 +8145,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -8145,7 +8161,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -8161,7 +8177,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -8177,7 +8193,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -8193,7 +8209,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -8209,7 +8225,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -8225,7 +8241,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -8241,7 +8257,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -8257,7 +8273,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -8273,7 +8289,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -8289,7 +8305,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -8305,7 +8321,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -8321,7 +8337,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -8337,7 +8353,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -8353,7 +8369,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -8369,7 +8385,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -8385,7 +8401,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -8401,7 +8417,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -8417,7 +8433,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -8433,7 +8449,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -8449,7 +8465,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -8465,7 +8481,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -8481,7 +8497,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -8497,7 +8513,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -8513,7 +8529,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -8529,7 +8545,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -8545,7 +8561,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -8561,7 +8577,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -8577,7 +8593,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -8593,7 +8609,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8609,7 +8625,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8625,7 +8641,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8641,7 +8657,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8657,7 +8673,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8673,7 +8689,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8689,7 +8705,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8705,7 +8721,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8721,7 +8737,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8737,7 +8753,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8753,7 +8769,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8769,7 +8785,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8785,7 +8801,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8801,7 +8817,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8817,7 +8833,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8833,7 +8849,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -8849,7 +8865,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -8865,7 +8881,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -8881,7 +8897,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -8897,7 +8913,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -8913,7 +8929,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -8929,7 +8945,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -8945,7 +8961,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -8961,7 +8977,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -8977,7 +8993,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -8993,7 +9009,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -9009,7 +9025,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -9025,7 +9041,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -9041,7 +9057,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -9057,7 +9073,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -9073,7 +9089,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -9089,7 +9105,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -9105,7 +9121,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -9121,7 +9137,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -9137,7 +9153,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -9153,7 +9169,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -9169,7 +9185,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -9185,7 +9201,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -9201,7 +9217,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -9217,7 +9233,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -9233,7 +9249,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -9249,7 +9265,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -9265,7 +9281,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -9281,7 +9297,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -9297,7 +9313,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -9313,7 +9329,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -9329,7 +9345,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -9345,7 +9361,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -9361,7 +9377,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -9377,7 +9393,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -9393,7 +9409,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -9409,7 +9425,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -9425,7 +9441,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -9441,7 +9457,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -9457,7 +9473,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -9473,7 +9489,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -9489,7 +9505,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -9505,7 +9521,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -9521,7 +9537,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -9537,7 +9553,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -9553,7 +9569,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -9569,7 +9585,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -9585,7 +9601,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -9601,7 +9617,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -9617,7 +9633,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -9633,7 +9649,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -9649,7 +9665,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -9665,7 +9681,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -9681,7 +9697,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -9697,7 +9713,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -9713,7 +9729,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -9729,7 +9745,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -9745,7 +9761,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -9761,7 +9777,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -9777,7 +9793,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -9793,7 +9809,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -9809,7 +9825,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -9825,7 +9841,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -9841,7 +9857,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -9857,7 +9873,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="41"/>
       <c r="B195" s="15"/>
       <c r="C195" s="42"/>
@@ -9888,10 +9904,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9914,28 +9930,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -9948,7 +9964,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -9977,7 +9993,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>107.80500000000001</v>
       </c>
@@ -10001,17 +10017,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -10032,7 +10048,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -10059,7 +10075,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -10085,7 +10101,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -10111,7 +10127,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -10137,7 +10153,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -10163,7 +10179,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -10189,7 +10205,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -10215,7 +10231,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -10241,7 +10257,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -10261,7 +10277,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -10281,7 +10297,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -10301,7 +10317,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -10322,7 +10338,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -10343,7 +10359,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -10364,7 +10380,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -10385,7 +10401,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -10406,7 +10422,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -10427,7 +10443,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -10448,7 +10464,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -10469,7 +10485,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -10490,7 +10506,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -10511,7 +10527,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -10532,7 +10548,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -10553,7 +10569,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -10574,7 +10590,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -10595,7 +10611,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -10616,7 +10632,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -10637,7 +10653,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -10658,7 +10674,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -10679,7 +10695,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -10700,7 +10716,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -10721,7 +10737,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -10730,7 +10746,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -10739,7 +10755,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -10748,7 +10764,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -10757,7 +10773,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -10766,7 +10782,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -10775,7 +10791,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -10784,7 +10800,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -10793,7 +10809,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -10802,7 +10818,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -10811,7 +10827,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -10820,7 +10836,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -10829,7 +10845,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -10838,7 +10854,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -10847,7 +10863,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -10856,7 +10872,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -10865,7 +10881,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -10874,7 +10890,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -10883,7 +10899,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -10892,7 +10908,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -10901,7 +10917,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -10910,7 +10926,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -10919,7 +10935,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -10928,7 +10944,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -10937,7 +10953,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -10946,7 +10962,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -10955,7 +10971,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -10964,7 +10980,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -10973,7 +10989,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -10982,7 +10998,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/GATPANDAN, MICHAEL.xlsx
+++ b/NEW HR/GATPANDAN, MICHAEL.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707BF9DD-B43E-46D8-A457-2945ED196040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="48" windowWidth="23016" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="45" windowWidth="23010" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="117">
   <si>
     <t>PERIOD</t>
   </si>
@@ -393,7 +392,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -775,17 +774,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -795,6 +791,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1306,7 +1305,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1323,25 +1322,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K236" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K236" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1353,25 +1352,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K195" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K195" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1678,34 +1677,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K236"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3984" topLeftCell="A109" activePane="bottomLeft"/>
-      <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="B112" sqref="B112:D113"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3990" topLeftCell="A106" activePane="bottomLeft"/>
+      <selection activeCell="K16" sqref="K16"/>
+      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1717,16 +1716,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1735,16 +1734,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1755,18 +1754,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1774,7 +1773,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1787,24 +1786,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1839,7 +1838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1848,7 +1847,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>57.25</v>
+        <v>58.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1858,12 +1857,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -1885,7 +1884,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1905,7 +1904,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="49"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1931,7 +1930,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>49</v>
@@ -1953,7 +1952,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43160</v>
       </c>
@@ -1973,7 +1972,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -1993,7 +1992,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43221</v>
       </c>
@@ -2019,7 +2018,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>49</v>
@@ -2041,7 +2040,7 @@
         <v>43236</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43252</v>
       </c>
@@ -2067,7 +2066,7 @@
         <v>43255</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43282</v>
       </c>
@@ -2093,7 +2092,7 @@
         <v>43291</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>47</v>
@@ -2115,7 +2114,7 @@
         <v>43304</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>47</v>
@@ -2137,7 +2136,7 @@
         <v>43312</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43313</v>
       </c>
@@ -2163,7 +2162,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>47</v>
@@ -2185,7 +2184,7 @@
         <v>43321</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43344</v>
       </c>
@@ -2211,7 +2210,7 @@
         <v>43371</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43374</v>
       </c>
@@ -2237,7 +2236,7 @@
         <v>43375</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>56</v>
@@ -2259,7 +2258,7 @@
         <v>43389</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>47</v>
@@ -2281,7 +2280,7 @@
         <v>43403</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43405</v>
       </c>
@@ -2307,7 +2306,7 @@
         <v>43410</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>47</v>
@@ -2329,7 +2328,7 @@
         <v>43418</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>49</v>
@@ -2351,7 +2350,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43435</v>
       </c>
@@ -2371,7 +2370,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
         <v>61</v>
       </c>
@@ -2389,7 +2388,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43466</v>
       </c>
@@ -2415,7 +2414,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43497</v>
       </c>
@@ -2441,7 +2440,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>64</v>
@@ -2463,7 +2462,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>47</v>
@@ -2485,7 +2484,7 @@
         <v>43516</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43525</v>
       </c>
@@ -2511,7 +2510,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43556</v>
       </c>
@@ -2537,7 +2536,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43586</v>
       </c>
@@ -2563,7 +2562,7 @@
         <v>43587</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>66</v>
@@ -2585,7 +2584,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>69</v>
@@ -2607,7 +2606,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43617</v>
       </c>
@@ -2633,7 +2632,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43647</v>
       </c>
@@ -2659,7 +2658,7 @@
         <v>43654</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43313</v>
       </c>
@@ -2685,7 +2684,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>47</v>
@@ -2707,7 +2706,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>69</v>
@@ -2729,7 +2728,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43709</v>
       </c>
@@ -2755,7 +2754,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>43739</v>
       </c>
@@ -2781,7 +2780,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>47</v>
@@ -2803,7 +2802,7 @@
         <v>43749</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>74</v>
@@ -2825,7 +2824,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>43770</v>
       </c>
@@ -2845,7 +2844,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>43800</v>
       </c>
@@ -2871,7 +2870,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>45</v>
@@ -2893,7 +2892,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
         <v>78</v>
       </c>
@@ -2911,7 +2910,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>43831</v>
       </c>
@@ -2931,7 +2930,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>43862</v>
       </c>
@@ -2957,7 +2956,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>43891</v>
       </c>
@@ -2983,7 +2982,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>47</v>
@@ -3005,7 +3004,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>43922</v>
       </c>
@@ -3025,7 +3024,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>43952</v>
       </c>
@@ -3051,7 +3050,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>43983</v>
       </c>
@@ -3077,7 +3076,7 @@
         <v>43986</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>47</v>
@@ -3099,7 +3098,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>47</v>
@@ -3121,7 +3120,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44013</v>
       </c>
@@ -3147,7 +3146,7 @@
         <v>44039</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44044</v>
       </c>
@@ -3167,7 +3166,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44075</v>
       </c>
@@ -3193,7 +3192,7 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>47</v>
@@ -3215,7 +3214,7 @@
         <v>44095</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>66</v>
@@ -3237,7 +3236,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44105</v>
       </c>
@@ -3263,7 +3262,7 @@
         <v>44109</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44136</v>
       </c>
@@ -3289,7 +3288,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44166</v>
       </c>
@@ -3313,7 +3312,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>66</v>
@@ -3335,7 +3334,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
         <v>86</v>
       </c>
@@ -3353,7 +3352,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44197</v>
       </c>
@@ -3377,7 +3376,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44228</v>
       </c>
@@ -3403,7 +3402,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>69</v>
@@ -3425,7 +3424,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44256</v>
       </c>
@@ -3451,7 +3450,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44287</v>
       </c>
@@ -3477,7 +3476,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44317</v>
       </c>
@@ -3503,7 +3502,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44348</v>
       </c>
@@ -3529,7 +3528,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="41"/>
       <c r="B81" s="15" t="s">
         <v>47</v>
@@ -3551,7 +3550,7 @@
         <v>44359</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44378</v>
       </c>
@@ -3571,7 +3570,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>44409</v>
       </c>
@@ -3591,7 +3590,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44440</v>
       </c>
@@ -3611,7 +3610,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>44470</v>
       </c>
@@ -3637,7 +3636,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>56</v>
@@ -3659,7 +3658,7 @@
         <v>44526</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>45</v>
@@ -3679,7 +3678,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>44501</v>
       </c>
@@ -3699,7 +3698,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>44531</v>
       </c>
@@ -3719,7 +3718,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
         <v>93</v>
       </c>
@@ -3737,7 +3736,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>44562</v>
       </c>
@@ -3763,7 +3762,7 @@
         <v>44587</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>44593</v>
       </c>
@@ -3783,7 +3782,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>44621</v>
       </c>
@@ -3803,7 +3802,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>44652</v>
       </c>
@@ -3823,7 +3822,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>44682</v>
       </c>
@@ -3843,7 +3842,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>44713</v>
       </c>
@@ -3863,7 +3862,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>44743</v>
       </c>
@@ -3883,7 +3882,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>44774</v>
       </c>
@@ -3903,7 +3902,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>44805</v>
       </c>
@@ -3923,7 +3922,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="49"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>44835</v>
       </c>
@@ -3943,7 +3942,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="49"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>44866</v>
       </c>
@@ -3969,7 +3968,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>44896</v>
       </c>
@@ -3993,7 +3992,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>47</v>
@@ -4015,7 +4014,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>47</v>
@@ -4037,7 +4036,7 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="48" t="s">
         <v>106</v>
       </c>
@@ -4055,7 +4054,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>44927</v>
       </c>
@@ -4075,7 +4074,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="49"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>44958</v>
       </c>
@@ -4101,7 +4100,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>44986</v>
       </c>
@@ -4127,7 +4126,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>45017</v>
       </c>
@@ -4153,7 +4152,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>47</v>
@@ -4175,7 +4174,7 @@
         <v>45034</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>45047</v>
       </c>
@@ -4195,25 +4194,33 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>45078</v>
       </c>
-      <c r="B112" s="20"/>
-      <c r="C112" s="13"/>
+      <c r="B112" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C112" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D112" s="39"/>
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H112" s="39"/>
+      <c r="G112" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H112" s="39">
+        <v>1</v>
+      </c>
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
-      <c r="K112" s="20"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K112" s="49">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>45108</v>
       </c>
@@ -4231,7 +4238,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>45139</v>
       </c>
@@ -4249,7 +4256,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>45170</v>
       </c>
@@ -4267,7 +4274,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>45200</v>
       </c>
@@ -4285,7 +4292,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>45231</v>
       </c>
@@ -4303,7 +4310,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>45261</v>
       </c>
@@ -4321,7 +4328,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>45292</v>
       </c>
@@ -4339,7 +4346,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>45323</v>
       </c>
@@ -4357,7 +4364,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>45352</v>
       </c>
@@ -4375,7 +4382,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>45383</v>
       </c>
@@ -4393,7 +4400,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>45413</v>
       </c>
@@ -4411,7 +4418,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>45444</v>
       </c>
@@ -4429,7 +4436,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>45474</v>
       </c>
@@ -4447,7 +4454,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>45505</v>
       </c>
@@ -4465,7 +4472,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>45536</v>
       </c>
@@ -4483,7 +4490,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>45566</v>
       </c>
@@ -4501,7 +4508,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>45597</v>
       </c>
@@ -4519,7 +4526,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>45627</v>
       </c>
@@ -4537,7 +4544,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>45658</v>
       </c>
@@ -4555,7 +4562,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>45689</v>
       </c>
@@ -4573,7 +4580,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>45717</v>
       </c>
@@ -4591,7 +4598,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>45748</v>
       </c>
@@ -4609,7 +4616,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>45778</v>
       </c>
@@ -4627,7 +4634,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>45809</v>
       </c>
@@ -4645,7 +4652,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>45839</v>
       </c>
@@ -4663,7 +4670,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>45870</v>
       </c>
@@ -4681,7 +4688,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>45901</v>
       </c>
@@ -4699,7 +4706,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>45931</v>
       </c>
@@ -4717,7 +4724,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>45962</v>
       </c>
@@ -4735,7 +4742,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>45992</v>
       </c>
@@ -4753,7 +4760,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>46023</v>
       </c>
@@ -4771,7 +4778,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>46054</v>
       </c>
@@ -4789,7 +4796,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>46082</v>
       </c>
@@ -4807,7 +4814,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>46113</v>
       </c>
@@ -4825,7 +4832,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>46143</v>
       </c>
@@ -4843,7 +4850,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>46174</v>
       </c>
@@ -4861,7 +4868,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>46204</v>
       </c>
@@ -4879,7 +4886,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>46235</v>
       </c>
@@ -4897,7 +4904,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>46266</v>
       </c>
@@ -4915,7 +4922,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>46296</v>
       </c>
@@ -4933,7 +4940,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>46327</v>
       </c>
@@ -4951,7 +4958,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>46357</v>
       </c>
@@ -4969,7 +4976,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>46388</v>
       </c>
@@ -4987,7 +4994,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>46419</v>
       </c>
@@ -5005,7 +5012,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>46447</v>
       </c>
@@ -5023,7 +5030,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>46478</v>
       </c>
@@ -5041,7 +5048,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>46508</v>
       </c>
@@ -5059,7 +5066,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>46539</v>
       </c>
@@ -5077,7 +5084,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>46569</v>
       </c>
@@ -5095,7 +5102,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>46600</v>
       </c>
@@ -5113,7 +5120,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>46631</v>
       </c>
@@ -5131,7 +5138,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -5147,7 +5154,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -5163,7 +5170,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -5179,7 +5186,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -5195,7 +5202,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -5211,7 +5218,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -5227,7 +5234,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -5243,7 +5250,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -5259,7 +5266,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -5275,7 +5282,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -5291,7 +5298,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -5307,7 +5314,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -5323,7 +5330,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -5339,7 +5346,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -5355,7 +5362,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -5371,7 +5378,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -5387,7 +5394,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -5403,7 +5410,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -5419,7 +5426,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -5435,7 +5442,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -5451,7 +5458,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -5467,7 +5474,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -5483,7 +5490,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -5499,7 +5506,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -5515,7 +5522,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -5531,7 +5538,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -5547,7 +5554,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -5563,7 +5570,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -5579,7 +5586,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -5595,7 +5602,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -5611,7 +5618,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -5627,7 +5634,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -5643,7 +5650,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -5659,7 +5666,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -5675,7 +5682,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -5691,7 +5698,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -5707,7 +5714,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -5723,7 +5730,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -5739,7 +5746,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -5755,7 +5762,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -5771,7 +5778,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -5787,7 +5794,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -5803,7 +5810,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -5819,7 +5826,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -5835,7 +5842,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -5851,7 +5858,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -5867,7 +5874,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -5883,7 +5890,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -5899,7 +5906,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -5915,7 +5922,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -5931,7 +5938,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -5947,7 +5954,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -5963,7 +5970,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -5979,7 +5986,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -5995,7 +6002,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -6011,7 +6018,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -6027,7 +6034,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -6043,7 +6050,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -6059,7 +6066,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -6075,7 +6082,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -6091,7 +6098,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -6107,7 +6114,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -6123,7 +6130,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -6139,7 +6146,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -6155,7 +6162,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -6171,7 +6178,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
@@ -6187,7 +6194,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20"/>
       <c r="C230" s="13"/>
@@ -6203,7 +6210,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20"/>
       <c r="C231" s="13"/>
@@ -6219,7 +6226,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20"/>
       <c r="C232" s="13"/>
@@ -6235,7 +6242,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20"/>
       <c r="C233" s="13"/>
@@ -6251,7 +6258,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20"/>
       <c r="C234" s="13"/>
@@ -6267,7 +6274,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20"/>
       <c r="C235" s="13"/>
@@ -6283,7 +6290,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="41"/>
       <c r="B236" s="15"/>
       <c r="C236" s="42"/>
@@ -6301,23 +6308,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6340,34 +6347,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A70"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6379,16 +6386,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6397,16 +6404,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6417,18 +6424,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6436,7 +6443,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6449,24 +6456,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6501,7 +6508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6525,7 +6532,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -6547,7 +6554,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6569,7 +6576,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>44</v>
@@ -6589,7 +6596,7 @@
         <v>43129</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43132</v>
       </c>
@@ -6611,7 +6618,7 @@
         <v>43214</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43221</v>
       </c>
@@ -6633,7 +6640,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43252</v>
       </c>
@@ -6655,7 +6662,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43282</v>
       </c>
@@ -6677,7 +6684,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43313</v>
       </c>
@@ -6699,7 +6706,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43344</v>
       </c>
@@ -6721,7 +6728,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>57</v>
@@ -6741,7 +6748,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43405</v>
       </c>
@@ -6763,7 +6770,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43435</v>
       </c>
@@ -6783,7 +6790,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>61</v>
       </c>
@@ -6801,7 +6808,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43466</v>
       </c>
@@ -6823,7 +6830,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43497</v>
       </c>
@@ -6845,7 +6852,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43556</v>
       </c>
@@ -6867,7 +6874,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>78</v>
       </c>
@@ -6885,7 +6892,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43831</v>
       </c>
@@ -6907,7 +6914,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>44</v>
@@ -6927,7 +6934,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43862</v>
       </c>
@@ -6949,7 +6956,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>44</v>
@@ -6969,7 +6976,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
         <v>86</v>
       </c>
@@ -6987,7 +6994,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>44197</v>
       </c>
@@ -7009,7 +7016,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>44</v>
@@ -7029,7 +7036,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>44228</v>
       </c>
@@ -7051,7 +7058,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>66</v>
@@ -7071,7 +7078,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>69</v>
@@ -7091,7 +7098,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>44256</v>
       </c>
@@ -7113,7 +7120,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>44287</v>
       </c>
@@ -7135,7 +7142,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>44317</v>
       </c>
@@ -7157,7 +7164,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>44348</v>
       </c>
@@ -7179,7 +7186,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
       <c r="B41" s="15" t="s">
         <v>47</v>
@@ -7199,7 +7206,7 @@
         <v>44359</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>44409</v>
       </c>
@@ -7221,7 +7228,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44470</v>
       </c>
@@ -7245,7 +7252,7 @@
         <v>44474</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>66</v>
@@ -7267,7 +7274,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>47</v>
@@ -7287,7 +7294,7 @@
         <v>44494</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
         <v>93</v>
       </c>
@@ -7305,7 +7312,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44562</v>
       </c>
@@ -7327,7 +7334,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>56</v>
@@ -7349,7 +7356,7 @@
         <v>44587</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44593</v>
       </c>
@@ -7373,7 +7380,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>44</v>
@@ -7393,7 +7400,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>44</v>
@@ -7413,7 +7420,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>47</v>
@@ -7435,7 +7442,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44743</v>
       </c>
@@ -7459,7 +7466,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44774</v>
       </c>
@@ -7483,7 +7490,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44805</v>
       </c>
@@ -7507,7 +7514,7 @@
         <v>44833</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44835</v>
       </c>
@@ -7531,7 +7538,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>47</v>
@@ -7553,7 +7560,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>101</v>
@@ -7577,7 +7584,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44866</v>
       </c>
@@ -7601,7 +7608,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>45</v>
@@ -7623,7 +7630,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>104</v>
@@ -7645,7 +7652,7 @@
         <v>44886</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>104</v>
@@ -7667,7 +7674,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44896</v>
       </c>
@@ -7691,7 +7698,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>104</v>
@@ -7709,7 +7716,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
         <v>106</v>
       </c>
@@ -7727,7 +7734,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44927</v>
       </c>
@@ -7749,7 +7756,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>44</v>
@@ -7769,7 +7776,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44958</v>
       </c>
@@ -7791,7 +7798,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>47</v>
@@ -7809,7 +7816,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44986</v>
       </c>
@@ -7833,7 +7840,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>45</v>
@@ -7855,7 +7862,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>45017</v>
       </c>
@@ -7879,7 +7886,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>56</v>
@@ -7901,7 +7908,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>45047</v>
       </c>
@@ -7925,7 +7932,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>45</v>
@@ -7947,7 +7954,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>45078</v>
       </c>
@@ -7971,7 +7978,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>45</v>
@@ -7993,7 +8000,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>45103</v>
       </c>
@@ -8017,7 +8024,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -8033,7 +8040,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -8049,7 +8056,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -8065,7 +8072,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -8081,7 +8088,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -8097,7 +8104,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -8113,7 +8120,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -8129,7 +8136,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -8145,7 +8152,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -8161,7 +8168,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -8177,7 +8184,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -8193,7 +8200,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -8209,7 +8216,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -8225,7 +8232,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -8241,7 +8248,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -8257,7 +8264,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -8273,7 +8280,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -8289,7 +8296,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -8305,7 +8312,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -8321,7 +8328,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -8337,7 +8344,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -8353,7 +8360,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -8369,7 +8376,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -8385,7 +8392,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -8401,7 +8408,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -8417,7 +8424,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -8433,7 +8440,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -8449,7 +8456,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -8465,7 +8472,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -8481,7 +8488,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -8497,7 +8504,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -8513,7 +8520,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -8529,7 +8536,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -8545,7 +8552,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -8561,7 +8568,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -8577,7 +8584,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -8593,7 +8600,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -8609,7 +8616,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8625,7 +8632,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8641,7 +8648,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8657,7 +8664,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8673,7 +8680,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8689,7 +8696,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8705,7 +8712,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8721,7 +8728,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8737,7 +8744,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8753,7 +8760,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8769,7 +8776,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8785,7 +8792,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8801,7 +8808,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8817,7 +8824,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8833,7 +8840,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8849,7 +8856,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -8865,7 +8872,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -8881,7 +8888,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -8897,7 +8904,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -8913,7 +8920,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -8929,7 +8936,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -8945,7 +8952,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -8961,7 +8968,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -8977,7 +8984,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -8993,7 +9000,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -9009,7 +9016,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -9025,7 +9032,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -9041,7 +9048,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -9057,7 +9064,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -9073,7 +9080,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -9089,7 +9096,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -9105,7 +9112,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -9121,7 +9128,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -9137,7 +9144,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -9153,7 +9160,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -9169,7 +9176,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -9185,7 +9192,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -9201,7 +9208,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -9217,7 +9224,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -9233,7 +9240,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -9249,7 +9256,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -9265,7 +9272,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -9281,7 +9288,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -9297,7 +9304,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -9313,7 +9320,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -9329,7 +9336,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -9345,7 +9352,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -9361,7 +9368,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -9377,7 +9384,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -9393,7 +9400,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -9409,7 +9416,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -9425,7 +9432,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -9441,7 +9448,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -9457,7 +9464,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -9473,7 +9480,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -9489,7 +9496,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -9505,7 +9512,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -9521,7 +9528,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -9537,7 +9544,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -9553,7 +9560,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -9569,7 +9576,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -9585,7 +9592,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -9601,7 +9608,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -9617,7 +9624,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -9633,7 +9640,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -9649,7 +9656,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -9665,7 +9672,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -9681,7 +9688,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -9697,7 +9704,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -9713,7 +9720,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -9729,7 +9736,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -9745,7 +9752,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -9761,7 +9768,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -9777,7 +9784,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -9793,7 +9800,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -9809,7 +9816,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -9825,7 +9832,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -9841,7 +9848,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -9857,7 +9864,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -9873,7 +9880,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="41"/>
       <c r="B195" s="15"/>
       <c r="C195" s="42"/>
@@ -9904,10 +9911,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9930,28 +9937,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -9964,7 +9971,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -9993,7 +10000,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>107.80500000000001</v>
       </c>
@@ -10017,17 +10024,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -10048,7 +10055,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -10075,7 +10082,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -10101,7 +10108,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -10127,7 +10134,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -10153,7 +10160,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -10179,7 +10186,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -10205,7 +10212,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -10231,7 +10238,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -10257,7 +10264,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -10277,7 +10284,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -10297,7 +10304,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -10317,7 +10324,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -10338,7 +10345,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -10359,7 +10366,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -10380,7 +10387,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -10401,7 +10408,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -10422,7 +10429,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -10443,7 +10450,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -10464,7 +10471,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -10485,7 +10492,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -10506,7 +10513,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -10527,7 +10534,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -10548,7 +10555,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -10569,7 +10576,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -10590,7 +10597,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -10611,7 +10618,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -10632,7 +10639,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -10653,7 +10660,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -10674,7 +10681,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -10695,7 +10702,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -10716,7 +10723,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -10737,7 +10744,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -10746,7 +10753,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -10755,7 +10762,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -10764,7 +10771,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -10773,7 +10780,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -10782,7 +10789,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -10791,7 +10798,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -10800,7 +10807,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -10809,7 +10816,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -10818,7 +10825,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -10827,7 +10834,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -10836,7 +10843,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -10845,7 +10852,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -10854,7 +10861,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -10863,7 +10870,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -10872,7 +10879,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -10881,7 +10888,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -10890,7 +10897,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -10899,7 +10906,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -10908,7 +10915,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -10917,7 +10924,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -10926,7 +10933,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -10935,7 +10942,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -10944,7 +10951,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -10953,7 +10960,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -10962,7 +10969,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -10971,7 +10978,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -10980,7 +10987,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -10989,7 +10996,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -10998,7 +11005,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/GATPANDAN, MICHAEL.xlsx
+++ b/NEW HR/GATPANDAN, MICHAEL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="118">
   <si>
     <t>PERIOD</t>
   </si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>7/3,4,5/2023</t>
+  </si>
+  <si>
+    <t>7/27,28/2023</t>
   </si>
 </sst>
 </file>
@@ -6354,9 +6357,9 @@
   <dimension ref="A2:K195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A70"/>
+      <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
+      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6517,7 +6520,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>69.695999999999998</v>
+        <v>65.695999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -8025,10 +8028,16 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
-      <c r="B79" s="20"/>
+      <c r="A79" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C79" s="13"/>
-      <c r="D79" s="39"/>
+      <c r="D79" s="39">
+        <v>1</v>
+      </c>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
       <c r="G79" s="13" t="str">
@@ -8038,13 +8047,19 @@
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20"/>
+      <c r="K79" s="49">
+        <v>45124</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
-      <c r="B80" s="20"/>
+      <c r="B80" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C80" s="13"/>
-      <c r="D80" s="39"/>
+      <c r="D80" s="39">
+        <v>1</v>
+      </c>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
       <c r="G80" s="13" t="str">
@@ -8054,13 +8069,19 @@
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20"/>
+      <c r="K80" s="49">
+        <v>45128</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
-      <c r="B81" s="20"/>
+      <c r="B81" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C81" s="13"/>
-      <c r="D81" s="39"/>
+      <c r="D81" s="39">
+        <v>2</v>
+      </c>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
       <c r="G81" s="13" t="str">
@@ -8070,7 +8091,9 @@
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
+      <c r="K81" s="20" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>

--- a/NEW HR/GATPANDAN, MICHAEL.xlsx
+++ b/NEW HR/GATPANDAN, MICHAEL.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="124">
   <si>
     <t>PERIOD</t>
   </si>
@@ -390,6 +390,24 @@
   </si>
   <si>
     <t>7/27,28/2023</t>
+  </si>
+  <si>
+    <t>VL(7-0-0)</t>
+  </si>
+  <si>
+    <t>8/22-25,29-31/2023</t>
+  </si>
+  <si>
+    <t>9/14,15/2023</t>
+  </si>
+  <si>
+    <t>9/1,4/2023</t>
+  </si>
+  <si>
+    <t>9/21,22/2023</t>
+  </si>
+  <si>
+    <t>10/5,6/2023</t>
   </si>
 </sst>
 </file>
@@ -777,14 +795,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -794,9 +815,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1689,7 +1707,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3990" topLeftCell="A106" activePane="bottomLeft"/>
       <selection activeCell="K16" sqref="K16"/>
-      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
+      <selection pane="bottomLeft" activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1719,14 +1737,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1737,14 +1755,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1757,16 +1775,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1792,18 +1810,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1850,7 +1868,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>58.5</v>
+        <v>62.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1860,7 +1878,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4228,13 +4246,15 @@
         <v>45108</v>
       </c>
       <c r="B113" s="20"/>
-      <c r="C113" s="13"/>
+      <c r="C113" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D113" s="39"/>
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G113" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H113" s="39"/>
       <c r="I113" s="9"/>
@@ -4246,13 +4266,15 @@
         <v>45139</v>
       </c>
       <c r="B114" s="20"/>
-      <c r="C114" s="13"/>
+      <c r="C114" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D114" s="39"/>
       <c r="E114" s="9"/>
       <c r="F114" s="20"/>
-      <c r="G114" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G114" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H114" s="39"/>
       <c r="I114" s="9"/>
@@ -4263,19 +4285,27 @@
       <c r="A115" s="40">
         <v>45170</v>
       </c>
-      <c r="B115" s="20"/>
-      <c r="C115" s="13"/>
+      <c r="B115" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C115" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D115" s="39"/>
       <c r="E115" s="9"/>
       <c r="F115" s="20"/>
-      <c r="G115" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H115" s="39"/>
+      <c r="G115" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H115" s="39">
+        <v>2</v>
+      </c>
       <c r="I115" s="9"/>
       <c r="J115" s="11"/>
-      <c r="K115" s="20"/>
+      <c r="K115" s="20" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
@@ -6311,17 +6341,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -6359,7 +6389,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
+      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6389,14 +6419,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6407,14 +6437,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6427,16 +6457,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6462,18 +6492,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6520,7 +6550,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>65.695999999999998</v>
+        <v>52.696000000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -8096,10 +8126,16 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
-      <c r="B82" s="20"/>
+      <c r="A82" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>118</v>
+      </c>
       <c r="C82" s="13"/>
-      <c r="D82" s="39"/>
+      <c r="D82" s="39">
+        <v>7</v>
+      </c>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
       <c r="G82" s="13" t="str">
@@ -8109,13 +8145,21 @@
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
+      <c r="K82" s="20" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
-      <c r="B83" s="20"/>
+      <c r="A83" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C83" s="13"/>
-      <c r="D83" s="39"/>
+      <c r="D83" s="39">
+        <v>2</v>
+      </c>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
       <c r="G83" s="13" t="str">
@@ -8125,13 +8169,19 @@
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
+      <c r="K83" s="20" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
-      <c r="B84" s="20"/>
+      <c r="B84" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C84" s="13"/>
-      <c r="D84" s="39"/>
+      <c r="D84" s="39">
+        <v>2</v>
+      </c>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
       <c r="G84" s="13" t="str">
@@ -8141,13 +8191,21 @@
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
+      <c r="K84" s="20" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
-      <c r="B85" s="20"/>
+      <c r="A85" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C85" s="13"/>
-      <c r="D85" s="39"/>
+      <c r="D85" s="39">
+        <v>2</v>
+      </c>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
       <c r="G85" s="13" t="str">
@@ -8157,7 +8215,9 @@
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
+      <c r="K85" s="20" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
